--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -110,7 +110,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -542,6 +542,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +554,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -617,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4459543.9456519447</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4630272.8246680694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,7 +665,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -725,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +743,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -800,6 +809,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4466237.7687487239</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4521110.7032867828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +854,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -908,6 +920,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,7 +932,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -983,6 +998,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>6693.8230967791751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-109162.12138128653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,11 +1022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36561280"/>
-        <c:axId val="36562816"/>
+        <c:axId val="75702272"/>
+        <c:axId val="75704192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36561280"/>
+        <c:axId val="75702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,14 +1069,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36562816"/>
+        <c:crossAx val="75704192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36562816"/>
+        <c:axId val="75704192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1127,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36561280"/>
+        <c:crossAx val="75702272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,6 +1283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1299,7 +1318,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1365,6 +1384,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,8 +1401,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254292352"/>
-        <c:axId val="245177344"/>
+        <c:axId val="92331008"/>
+        <c:axId val="91855104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1405,7 +1427,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1471,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,7 +1505,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1546,6 +1571,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1562,11 +1590,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232941440"/>
-        <c:axId val="245175424"/>
+        <c:axId val="91842816"/>
+        <c:axId val="91853568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="232941440"/>
+        <c:axId val="91842816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1609,14 +1637,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245175424"/>
+        <c:crossAx val="91853568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="245175424"/>
+        <c:axId val="91853568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,12 +1695,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232941440"/>
+        <c:crossAx val="91842816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245177344"/>
+        <c:axId val="91855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1709,12 +1737,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254292352"/>
+        <c:crossAx val="92331008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254292352"/>
+        <c:axId val="92331008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="245177344"/>
+        <c:crossAx val="91855104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2132,14 +2160,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="10" customWidth="1"/>
     <col min="2" max="2" width="8" style="10" customWidth="1"/>
@@ -2171,7 +2199,7 @@
     <col min="32" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2213,7 +2241,7 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2233,7 +2261,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="11">
         <v>44377</v>
       </c>
@@ -2306,7 +2334,7 @@
         <v>-460092.89506698097</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="11">
         <v>44407</v>
       </c>
@@ -2385,7 +2413,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
         <v>44439</v>
       </c>
@@ -2461,7 +2489,7 @@
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
         <v>44469</v>
       </c>
@@ -2511,7 +2539,7 @@
       <c r="AD6" s="19"/>
       <c r="AE6" s="16"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
         <v>44498</v>
       </c>
@@ -2556,7 +2584,7 @@
       <c r="AA7" s="8"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
         <v>44530</v>
       </c>
@@ -2597,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="11">
         <v>44561</v>
       </c>
@@ -2641,7 +2669,7 @@
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="11">
         <v>44589</v>
       </c>
@@ -2685,7 +2713,7 @@
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="11">
         <v>44620</v>
       </c>
@@ -2729,7 +2757,7 @@
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="11">
         <v>44651</v>
       </c>
@@ -2771,7 +2799,7 @@
       </c>
       <c r="Y12" s="16"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="11">
         <v>44680</v>
       </c>
@@ -2813,7 +2841,7 @@
       </c>
       <c r="AA13" s="9"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="11">
         <v>44712</v>
       </c>
@@ -2854,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="11">
         <v>44742</v>
       </c>
@@ -2895,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="11">
         <v>44771</v>
       </c>
@@ -2936,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="11">
         <v>44804</v>
       </c>
@@ -2977,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="11">
         <v>44834</v>
       </c>
@@ -3018,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="11">
         <v>44865</v>
       </c>
@@ -3059,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="11">
         <v>44895</v>
       </c>
@@ -3100,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="11">
         <v>44925</v>
       </c>
@@ -3141,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="11">
         <v>44957</v>
       </c>
@@ -3182,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="11">
         <v>44985</v>
       </c>
@@ -3223,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="11">
         <v>45016</v>
       </c>
@@ -3261,6 +3289,47 @@
         <v>0</v>
       </c>
       <c r="M24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="11">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="12">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="13">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="13">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="14">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="14">
+        <v>6020120.8798847543</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4521110.7032867828</v>
+      </c>
+      <c r="I25" s="14">
+        <v>4630272.8246680694</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4521110.7032867828</v>
+      </c>
+      <c r="K25" s="14">
+        <v>-109162.12138128653</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -545,6 +545,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,7 +560,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -623,6 +629,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4630272.8246680694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4915951.1129773855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5128787.9025565619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -665,7 +677,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -734,6 +746,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +761,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -812,6 +830,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4521110.7032867828</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4620165.4940633783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5057593.4387147119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +878,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -923,6 +947,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +962,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1001,6 +1031,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-109162.12138128653</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-295785.61891400721</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-71194.463841849938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,11 +1058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75702272"/>
-        <c:axId val="75704192"/>
+        <c:axId val="490375040"/>
+        <c:axId val="490381312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75702272"/>
+        <c:axId val="490375040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,14 +1105,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75704192"/>
+        <c:crossAx val="490381312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75704192"/>
+        <c:axId val="490381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,7 +1163,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75702272"/>
+        <c:crossAx val="490375040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1318,7 +1354,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1387,6 +1423,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,8 +1443,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="92331008"/>
-        <c:axId val="91855104"/>
+        <c:axId val="496460160"/>
+        <c:axId val="496458368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1427,7 +1469,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1496,6 +1538,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1505,7 +1553,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1574,6 +1622,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,11 +1644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="91842816"/>
-        <c:axId val="91853568"/>
+        <c:axId val="496446464"/>
+        <c:axId val="496456832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="91842816"/>
+        <c:axId val="496446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,14 +1691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91853568"/>
+        <c:crossAx val="496456832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="91853568"/>
+        <c:axId val="496456832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,12 +1749,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91842816"/>
+        <c:crossAx val="496446464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91855104"/>
+        <c:axId val="496458368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,12 +1791,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92331008"/>
+        <c:crossAx val="496460160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="92331008"/>
+        <c:axId val="496460160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +1805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91855104"/>
+        <c:crossAx val="496458368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2160,7 +2214,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3333,6 +3387,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="11">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="12">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="13">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="13">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F26" s="14">
+        <v>396775.38466316788</v>
+      </c>
+      <c r="G26" s="14">
+        <v>6416896.2645479217</v>
+      </c>
+      <c r="H26" s="14">
+        <v>4620165.4940633783</v>
+      </c>
+      <c r="I26" s="14">
+        <v>4915951.1129773855</v>
+      </c>
+      <c r="J26" s="14">
+        <v>4620165.4940633783</v>
+      </c>
+      <c r="K26" s="14">
+        <v>-295785.61891400721</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="11">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="12">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="13">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="13">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="14">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="14">
+        <v>6698799.2988835443</v>
+      </c>
+      <c r="H27" s="14">
+        <v>5057593.4387147119</v>
+      </c>
+      <c r="I27" s="14">
+        <v>5128787.9025565619</v>
+      </c>
+      <c r="J27" s="14">
+        <v>5057593.4387147119</v>
+      </c>
+      <c r="K27" s="14">
+        <v>-71194.463841849938</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -551,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,7 +567,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -635,6 +642,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5128787.9025565619</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5314295.3367163166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +687,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -752,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +774,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -836,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5057593.4387147119</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5283293.5504810195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +894,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -953,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +981,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1056,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-71194.463841849938</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-31001.786235297099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,11 +1080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490375040"/>
-        <c:axId val="490381312"/>
+        <c:axId val="354829824"/>
+        <c:axId val="354831360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490375040"/>
+        <c:axId val="354829824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490381312"/>
+        <c:crossAx val="354831360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490381312"/>
+        <c:axId val="354831360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490375040"/>
+        <c:crossAx val="354829824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1354,7 +1376,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1429,6 +1451,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,8 +1468,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496460160"/>
-        <c:axId val="496458368"/>
+        <c:axId val="395198848"/>
+        <c:axId val="395088256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1469,7 +1494,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1544,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1581,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1628,6 +1656,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496446464"/>
-        <c:axId val="496456832"/>
+        <c:axId val="395084544"/>
+        <c:axId val="395086464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496446464"/>
+        <c:axId val="395084544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,14 +1722,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496456832"/>
+        <c:crossAx val="395086464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496456832"/>
+        <c:axId val="395086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1780,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496446464"/>
+        <c:crossAx val="395084544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496458368"/>
+        <c:axId val="395088256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496460160"/>
+        <c:crossAx val="395198848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496460160"/>
+        <c:axId val="395198848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +1836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496458368"/>
+        <c:crossAx val="395088256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2245,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2354,28 +2385,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3466,6 +3497,47 @@
         <v>0</v>
       </c>
       <c r="M27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="11">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="12">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="13">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="13">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="14">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="14">
+        <v>6942567.2878755592</v>
+      </c>
+      <c r="H28" s="14">
+        <v>5283293.5504810195</v>
+      </c>
+      <c r="I28" s="14">
+        <v>5314295.3367163166</v>
+      </c>
+      <c r="J28" s="14">
+        <v>5283293.5504810195</v>
+      </c>
+      <c r="K28" s="14">
+        <v>-31001.786235297099</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -558,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,7 +566,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -645,6 +644,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5314295.3367163166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5570385.9603669886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,7 +689,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -765,6 +767,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +779,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -852,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5283293.5504810195</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5213083.5745005477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +902,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -972,6 +980,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +992,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1059,6 +1070,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-31001.786235297099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-357302.38586644083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,11 +1094,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="354829824"/>
-        <c:axId val="354831360"/>
+        <c:axId val="461068544"/>
+        <c:axId val="461114752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="354829824"/>
+        <c:axId val="461068544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1127,14 +1141,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354831360"/>
+        <c:crossAx val="461114752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="354831360"/>
+        <c:axId val="461114752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,7 +1199,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="354829824"/>
+        <c:crossAx val="461068544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1390,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1454,6 +1468,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,8 +1485,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="395198848"/>
-        <c:axId val="395088256"/>
+        <c:axId val="465536128"/>
+        <c:axId val="465533568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1494,7 +1511,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1572,6 +1589,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,7 +1601,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1659,6 +1679,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,11 +1698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395084544"/>
-        <c:axId val="395086464"/>
+        <c:axId val="461561216"/>
+        <c:axId val="465532032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395084544"/>
+        <c:axId val="461561216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,14 +1745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395086464"/>
+        <c:crossAx val="465532032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395086464"/>
+        <c:axId val="465532032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,12 +1803,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395084544"/>
+        <c:crossAx val="461561216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="395088256"/>
+        <c:axId val="465533568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,12 +1845,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395198848"/>
+        <c:crossAx val="465536128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="395198848"/>
+        <c:axId val="465536128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395088256"/>
+        <c:crossAx val="465533568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2245,7 +2268,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2385,28 +2408,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3538,6 +3561,47 @@
         <v>0</v>
       </c>
       <c r="M28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="11">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="12">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="13">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="13">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="14">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="14">
+        <v>7301237.6358299535</v>
+      </c>
+      <c r="H29" s="14">
+        <v>5213083.5745005477</v>
+      </c>
+      <c r="I29" s="14">
+        <v>5570385.9603669886</v>
+      </c>
+      <c r="J29" s="14">
+        <v>5213083.5745005477</v>
+      </c>
+      <c r="K29" s="14">
+        <v>-357302.38586644083</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -557,6 +561,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,7 +573,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -647,6 +654,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5570385.9603669886</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5918816.6014320971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,7 +699,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -770,6 +780,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +792,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -860,6 +873,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5213083.5745005477</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5349778.4390161335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,7 +918,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -983,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,7 +1011,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1073,6 +1092,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-357302.38586644083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-569038.1624159636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,11 +1116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461068544"/>
-        <c:axId val="461114752"/>
+        <c:axId val="430826624"/>
+        <c:axId val="430828544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461068544"/>
+        <c:axId val="430826624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,14 +1163,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461114752"/>
+        <c:crossAx val="430828544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461114752"/>
+        <c:axId val="430828544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,7 +1221,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461068544"/>
+        <c:crossAx val="430826624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1390,7 +1412,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1471,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1485,8 +1510,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465536128"/>
-        <c:axId val="465533568"/>
+        <c:axId val="446607744"/>
+        <c:axId val="445356672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1511,7 +1536,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1592,6 +1617,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,7 +1629,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1682,6 +1710,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1698,11 +1729,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461561216"/>
-        <c:axId val="465532032"/>
+        <c:axId val="445352960"/>
+        <c:axId val="445355136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461561216"/>
+        <c:axId val="445352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,14 +1776,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465532032"/>
+        <c:crossAx val="445355136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465532032"/>
+        <c:axId val="445355136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,12 +1834,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461561216"/>
+        <c:crossAx val="445352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465533568"/>
+        <c:axId val="445356672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,12 +1876,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465536128"/>
+        <c:crossAx val="446607744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465536128"/>
+        <c:axId val="446607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465533568"/>
+        <c:crossAx val="445356672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2268,7 +2299,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2408,28 +2439,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3602,6 +3633,47 @@
         <v>0</v>
       </c>
       <c r="M29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="11">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="12">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="13">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="13">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="14">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="14">
+        <v>7809895.5042275796</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5349778.4390161335</v>
+      </c>
+      <c r="I30" s="14">
+        <v>5918816.6014320971</v>
+      </c>
+      <c r="J30" s="14">
+        <v>5349778.4390161335</v>
+      </c>
+      <c r="K30" s="14">
+        <v>-569038.1624159636</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -564,6 +560,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -573,7 +572,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -657,6 +656,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5918816.6014320971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6283009.524875991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,7 +701,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -783,6 +785,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +797,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -876,6 +881,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5349778.4390161335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5542153.5459215222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +926,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1002,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1022,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1095,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-569038.1624159636</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-740855.97895446885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,11 +1130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430826624"/>
-        <c:axId val="430828544"/>
+        <c:axId val="481249920"/>
+        <c:axId val="481251712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430826624"/>
+        <c:axId val="481249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,14 +1177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430828544"/>
+        <c:crossAx val="481251712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430828544"/>
+        <c:axId val="481251712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1235,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430826624"/>
+        <c:crossAx val="481249920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1412,7 +1426,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1496,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,8 +1527,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446607744"/>
-        <c:axId val="445356672"/>
+        <c:axId val="482585984"/>
+        <c:axId val="482584448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1536,7 +1553,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1620,6 +1637,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1649,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1713,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1729,11 +1752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445352960"/>
-        <c:axId val="445355136"/>
+        <c:axId val="482576256"/>
+        <c:axId val="482582528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445352960"/>
+        <c:axId val="482576256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,14 +1799,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445355136"/>
+        <c:crossAx val="482582528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445355136"/>
+        <c:axId val="482582528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,12 +1857,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445352960"/>
+        <c:crossAx val="482576256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445356672"/>
+        <c:axId val="482584448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1876,12 +1899,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446607744"/>
+        <c:crossAx val="482585984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446607744"/>
+        <c:axId val="482585984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445356672"/>
+        <c:crossAx val="482584448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2322,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2439,28 +2462,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -3674,6 +3697,47 @@
         <v>0</v>
       </c>
       <c r="M30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="11">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="12">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="13">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="14">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="14">
+        <v>8359206.1079291161</v>
+      </c>
+      <c r="H31" s="14">
+        <v>5542153.5459215222</v>
+      </c>
+      <c r="I31" s="14">
+        <v>6283009.524875991</v>
+      </c>
+      <c r="J31" s="14">
+        <v>5542153.5459215222</v>
+      </c>
+      <c r="K31" s="14">
+        <v>-740855.97895446885</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -563,6 +563,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,7 +578,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -659,6 +665,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6283009.524875991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6686094.0423632581</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7079964.3112825733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +713,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -788,6 +800,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -797,7 +815,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -884,6 +902,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5542153.5459215222</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5844927.8850761652</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6184927.4760532547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +950,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1013,6 +1037,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1052,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1109,6 +1139,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-740855.97895446885</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-841166.15728709288</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-895036.83522931859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,11 +1166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481249920"/>
-        <c:axId val="481251712"/>
+        <c:axId val="350363008"/>
+        <c:axId val="350391680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481249920"/>
+        <c:axId val="350363008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,14 +1213,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481251712"/>
+        <c:crossAx val="350391680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481251712"/>
+        <c:axId val="350391680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1271,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481249920"/>
+        <c:crossAx val="350363008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1426,7 +1462,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1513,6 +1549,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,8 +1569,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="482585984"/>
-        <c:axId val="482584448"/>
+        <c:axId val="465787904"/>
+        <c:axId val="465785600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1553,7 +1595,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1640,6 +1682,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1697,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1736,6 +1784,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,11 +1806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482576256"/>
-        <c:axId val="482582528"/>
+        <c:axId val="350523776"/>
+        <c:axId val="439500160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482576256"/>
+        <c:axId val="350523776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,14 +1853,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482582528"/>
+        <c:crossAx val="439500160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="482582528"/>
+        <c:axId val="439500160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,12 +1911,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482576256"/>
+        <c:crossAx val="350523776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="482584448"/>
+        <c:axId val="465785600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,12 +1953,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482585984"/>
+        <c:crossAx val="465787904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="482585984"/>
+        <c:axId val="465787904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="482584448"/>
+        <c:crossAx val="465785600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2322,7 +2376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3741,6 +3795,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="11">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="12">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="13">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="13">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F32" s="14">
+        <v>619177.42444764997</v>
+      </c>
+      <c r="G32" s="14">
+        <v>8978383.5323767662</v>
+      </c>
+      <c r="H32" s="14">
+        <v>5844927.8850761652</v>
+      </c>
+      <c r="I32" s="14">
+        <v>6686094.0423632581</v>
+      </c>
+      <c r="J32" s="14">
+        <v>5844927.8850761652</v>
+      </c>
+      <c r="K32" s="14">
+        <v>-841166.15728709288</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75">
+      <c r="A33" s="11">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="13">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="13">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="14">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="14">
+        <v>9589035.1301543955</v>
+      </c>
+      <c r="H33" s="14">
+        <v>6184927.4760532547</v>
+      </c>
+      <c r="I33" s="14">
+        <v>7079964.3112825733</v>
+      </c>
+      <c r="J33" s="14">
+        <v>6184927.4760532547</v>
+      </c>
+      <c r="K33" s="14">
+        <v>-895036.83522931859</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -569,6 +569,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +581,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -671,6 +674,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7079964.3112825733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7644659.7229041681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -713,7 +719,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -806,6 +812,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +824,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -908,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6184927.4760532547</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5944144.0190452291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +962,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1043,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1067,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1145,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-895036.83522931859</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1700515.703858939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,11 +1184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="350363008"/>
-        <c:axId val="350391680"/>
+        <c:axId val="110145920"/>
+        <c:axId val="110148608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="350363008"/>
+        <c:axId val="110145920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,14 +1231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350391680"/>
+        <c:crossAx val="110148608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="350391680"/>
+        <c:axId val="110148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350363008"/>
+        <c:crossAx val="110145920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1462,7 +1480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1555,6 +1573,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,8 +1590,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465787904"/>
-        <c:axId val="465785600"/>
+        <c:axId val="366682880"/>
+        <c:axId val="161795072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1595,7 +1616,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1688,6 +1709,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,7 +1721,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1790,6 +1814,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1806,11 +1833,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="350523776"/>
-        <c:axId val="439500160"/>
+        <c:axId val="161790592"/>
+        <c:axId val="161793152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="350523776"/>
+        <c:axId val="161790592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,14 +1880,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439500160"/>
+        <c:crossAx val="161793152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439500160"/>
+        <c:axId val="161793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,12 +1938,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="350523776"/>
+        <c:crossAx val="161790592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="465785600"/>
+        <c:axId val="161795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,12 +1980,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465787904"/>
+        <c:crossAx val="366682880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="465787904"/>
+        <c:axId val="366682880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465785600"/>
+        <c:crossAx val="161795072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2376,7 +2403,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3877,6 +3904,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:13" ht="12.75">
+      <c r="A34" s="11">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="13">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="13">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1006587.2053139294</v>
+      </c>
+      <c r="G34" s="14">
+        <v>10595622.335468326</v>
+      </c>
+      <c r="H34" s="14">
+        <v>5944144.0190452291</v>
+      </c>
+      <c r="I34" s="14">
+        <v>7644659.7229041681</v>
+      </c>
+      <c r="J34" s="14">
+        <v>5944144.0190452291</v>
+      </c>
+      <c r="K34" s="14">
+        <v>-1700515.703858939</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -572,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,7 +584,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -677,6 +680,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7644659.7229041681</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8010700.8553322274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +725,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -815,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -824,7 +833,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -920,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5944144.0190452291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7126048.3037141254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +974,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1058,6 +1070,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1082,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1163,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1700515.703858939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-884652.55161810201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110145920"/>
-        <c:axId val="110148608"/>
+        <c:axId val="419598720"/>
+        <c:axId val="419600640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="110145920"/>
+        <c:axId val="419598720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,14 +1249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110148608"/>
+        <c:crossAx val="419600640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="110148608"/>
+        <c:axId val="419600640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110145920"/>
+        <c:crossAx val="419598720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1480,7 +1498,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1576,6 +1594,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,8 +1611,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="366682880"/>
-        <c:axId val="161795072"/>
+        <c:axId val="420016512"/>
+        <c:axId val="420002048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1616,7 +1637,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1712,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1745,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1817,6 +1841,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,11 +1860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="161790592"/>
-        <c:axId val="161793152"/>
+        <c:axId val="419997952"/>
+        <c:axId val="419999744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="161790592"/>
+        <c:axId val="419997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,14 +1907,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161793152"/>
+        <c:crossAx val="419999744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="161793152"/>
+        <c:axId val="419999744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,12 +1965,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161790592"/>
+        <c:crossAx val="419997952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161795072"/>
+        <c:axId val="420002048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +2007,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366682880"/>
+        <c:crossAx val="420016512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="366682880"/>
+        <c:axId val="420016512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161795072"/>
+        <c:crossAx val="420002048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2403,7 +2430,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3945,6 +3972,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:13" ht="12.75">
+      <c r="A35" s="11">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="12">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="13">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="13">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="14">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="14">
+        <v>11169354.507666156</v>
+      </c>
+      <c r="H35" s="14">
+        <v>7126048.3037141254</v>
+      </c>
+      <c r="I35" s="14">
+        <v>8010700.8553322274</v>
+      </c>
+      <c r="J35" s="14">
+        <v>7126048.3037141254</v>
+      </c>
+      <c r="K35" s="14">
+        <v>-884652.55161810201</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -575,6 +579,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,7 +591,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -683,6 +690,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8010700.8553322274</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8343549.2573070405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,7 +735,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -824,6 +834,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,7 +846,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -932,6 +945,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7126048.3037141254</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7548251.7228330187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +990,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1073,6 +1089,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1101,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,6 +1200,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-884652.55161810201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-795297.53447402176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,11 +1224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419598720"/>
-        <c:axId val="419600640"/>
+        <c:axId val="387154304"/>
+        <c:axId val="387156224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="419598720"/>
+        <c:axId val="387154304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,14 +1271,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419600640"/>
+        <c:crossAx val="387156224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="419600640"/>
+        <c:axId val="387156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1329,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419598720"/>
+        <c:crossAx val="387154304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1498,7 +1520,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1597,6 +1619,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,8 +1636,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="420016512"/>
-        <c:axId val="420002048"/>
+        <c:axId val="446344192"/>
+        <c:axId val="446341120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1637,7 +1662,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1736,6 +1761,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1773,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1844,6 +1872,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1891,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419997952"/>
-        <c:axId val="419999744"/>
+        <c:axId val="387180032"/>
+        <c:axId val="387184128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="419997952"/>
+        <c:axId val="387180032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,14 +1938,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419999744"/>
+        <c:crossAx val="387184128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="419999744"/>
+        <c:axId val="387184128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,12 +1996,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419997952"/>
+        <c:crossAx val="387180032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420002048"/>
+        <c:axId val="446341120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,12 +2038,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420016512"/>
+        <c:crossAx val="446344192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="420016512"/>
+        <c:axId val="446344192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="420002048"/>
+        <c:crossAx val="446341120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2430,7 +2461,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2570,28 +2601,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4010,6 +4041,47 @@
         <v>0</v>
       </c>
       <c r="M35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="12.75">
+      <c r="A36" s="11">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="12">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="13">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="13">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="14">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="14">
+        <v>11684599.689902853</v>
+      </c>
+      <c r="H36" s="14">
+        <v>7548251.7228330187</v>
+      </c>
+      <c r="I36" s="14">
+        <v>8343549.2573070405</v>
+      </c>
+      <c r="J36" s="14">
+        <v>7548251.7228330187</v>
+      </c>
+      <c r="K36" s="14">
+        <v>-795297.53447402176</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -582,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +590,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -693,6 +692,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8343549.2573070405</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8912219.5366344433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,7 +737,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -837,6 +839,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,7 +851,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -948,6 +953,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7548251.7228330187</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8327244.1781253787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +998,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1092,6 +1100,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1112,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1203,6 +1214,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-795297.53447402176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-584975.35850906465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387154304"/>
-        <c:axId val="387156224"/>
+        <c:axId val="474191744"/>
+        <c:axId val="474210304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387154304"/>
+        <c:axId val="474191744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,14 +1285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387156224"/>
+        <c:crossAx val="474210304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387156224"/>
+        <c:axId val="474210304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387154304"/>
+        <c:crossAx val="474191744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1520,7 +1534,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1622,6 +1636,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>568670.27932740364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,8 +1653,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446344192"/>
-        <c:axId val="446341120"/>
+        <c:axId val="477965696"/>
+        <c:axId val="477963776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1662,7 +1679,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1764,6 +1781,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,7 +1793,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1875,6 +1895,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1891,11 +1914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387180032"/>
-        <c:axId val="387184128"/>
+        <c:axId val="477956352"/>
+        <c:axId val="477962240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="387180032"/>
+        <c:axId val="477956352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,14 +1961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387184128"/>
+        <c:crossAx val="477962240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="387184128"/>
+        <c:axId val="477962240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,12 +2019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387180032"/>
+        <c:crossAx val="477956352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446341120"/>
+        <c:axId val="477963776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,12 +2061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446344192"/>
+        <c:crossAx val="477965696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446344192"/>
+        <c:axId val="477965696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446341120"/>
+        <c:crossAx val="477963776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2461,10 +2484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2601,28 +2624,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4083,6 +4106,47 @@
       </c>
       <c r="M36" s="8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12.75">
+      <c r="A37" s="11">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="12">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="13">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="13">
+        <v>568670.27932740364</v>
+      </c>
+      <c r="F37" s="14">
+        <v>856431.1761618203</v>
+      </c>
+      <c r="G37" s="14">
+        <v>12541030.866064673</v>
+      </c>
+      <c r="H37" s="14">
+        <v>8327244.1781253787</v>
+      </c>
+      <c r="I37" s="14">
+        <v>8912219.5366344433</v>
+      </c>
+      <c r="J37" s="14">
+        <v>8327244.1781253787</v>
+      </c>
+      <c r="K37" s="14">
+        <v>-584975.35850906465</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -604,97 +608,97 @@
                   <c:v>205658.0960735089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>274576.85953330022</c:v>
+                  <c:v>274576.85966817412</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>357789.69393141213</c:v>
+                  <c:v>357789.65517815872</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>460092.89506698097</c:v>
+                  <c:v>460092.79671082116</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>636869.02192495705</c:v>
+                  <c:v>636868.90045189066</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>789645.40941293107</c:v>
+                  <c:v>789645.28870255675</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1088623.800668576</c:v>
+                  <c:v>1088623.6811554795</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1518828.2596948277</c:v>
+                  <c:v>1518828.1414224168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1963494.130583649</c:v>
+                  <c:v>1963494.0134836917</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2120712.9209530167</c:v>
+                  <c:v>2120712.8047386352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2333272.3302846407</c:v>
+                  <c:v>2333272.2146004243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2585895.966957612</c:v>
+                  <c:v>2585895.8523361892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2983244.3812844427</c:v>
+                  <c:v>2983244.2191796582</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3377774.7250939691</c:v>
+                  <c:v>3377774.563739988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3691185.5975952549</c:v>
+                  <c:v>3691185.4372342029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3978732.9667154895</c:v>
+                  <c:v>3978732.8069236916</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4126193.0502062975</c:v>
+                  <c:v>4126192.8908593752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4306081.0038451338</c:v>
+                  <c:v>4306080.8448487334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4459543.9456519447</c:v>
+                  <c:v>4459543.787196531</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4630272.8246680694</c:v>
+                  <c:v>4630272.6664418085</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4915951.1129773855</c:v>
+                  <c:v>4915950.9550265912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5128787.9025565619</c:v>
+                  <c:v>5128787.7448716825</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5314295.3367163166</c:v>
+                  <c:v>5314295.1795647619</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5570385.9603669886</c:v>
+                  <c:v>5570385.8037519203</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5918816.6014320971</c:v>
+                  <c:v>5918816.4453167673</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6283009.524875991</c:v>
+                  <c:v>6283009.3694258975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6686094.0423632581</c:v>
+                  <c:v>6686093.8878035322</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7079964.3112825733</c:v>
+                  <c:v>7079964.1568562984</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7644659.7229041681</c:v>
+                  <c:v>7644659.568621086</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8010700.8553322274</c:v>
+                  <c:v>8010700.7013253663</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8343549.2573070405</c:v>
+                  <c:v>8340658.5816808688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8912219.5366344433</c:v>
+                  <c:v>8909328.8617098443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -865,97 +869,97 @@
                   <c:v>205344.64166221116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>281101.09769257216</c:v>
+                  <c:v>281101.09782744606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>369409.4391784615</c:v>
+                  <c:v>369409.40042765293</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>464770.20825194201</c:v>
+                  <c:v>464770.11062648369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>594225.97533383046</c:v>
+                  <c:v>594225.86453115556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>741000.11758503818</c:v>
+                  <c:v>741000.00866426725</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>964366.22639526217</c:v>
+                  <c:v>964366.12978613726</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1305683.3770328257</c:v>
+                  <c:v>1305683.2905690172</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1801196.440887809</c:v>
+                  <c:v>1801196.3522292967</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2194716.898577204</c:v>
+                  <c:v>2194716.7991730236</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2292995.1183796148</c:v>
+                  <c:v>2292995.0246816785</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2442562.7563325665</c:v>
+                  <c:v>2442562.6679085684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2619601.5663261195</c:v>
+                  <c:v>2619601.4383942583</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2980257.7384126545</c:v>
+                  <c:v>2980257.6128858882</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3436825.3265065444</c:v>
+                  <c:v>3436825.1959430273</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3738692.616219189</c:v>
+                  <c:v>3738692.4856809187</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4227444.0676769307</c:v>
+                  <c:v>4227443.9256671816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4268024.8045053268</c:v>
+                  <c:v>4268024.6675257552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4466237.7687487239</c:v>
+                  <c:v>4466237.6308739157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4521110.7032867828</c:v>
+                  <c:v>4521110.569217653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4620165.4940633783</c:v>
+                  <c:v>4620165.3658038536</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5057593.4387147119</c:v>
+                  <c:v>5057593.3044862701</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5283293.5504810195</c:v>
+                  <c:v>5283293.4157191906</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5213083.5745005477</c:v>
+                  <c:v>5213083.448598207</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5349778.4390161335</c:v>
+                  <c:v>5349778.3187272092</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5542153.5459215222</c:v>
+                  <c:v>5542153.4301611297</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5844927.8850761652</c:v>
+                  <c:v>5844927.7723013461</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6184927.4760532547</c:v>
+                  <c:v>6184927.364451291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5944144.0190452291</c:v>
+                  <c:v>5944143.9221206671</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7126048.3037141254</c:v>
+                  <c:v>7126048.1937624086</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7548251.7228330187</c:v>
+                  <c:v>7545361.0898832837</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8327244.1781253787</c:v>
+                  <c:v>8324273.0021653427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,94 +1133,94 @@
                   <c:v>6524.2381592719466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11619.745247049374</c:v>
+                  <c:v>11619.745249494212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4677.3131849610363</c:v>
+                  <c:v>4677.3139156625257</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-42643.046591126593</c:v>
+                  <c:v>-42643.035920735099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-48645.291827892885</c:v>
+                  <c:v>-48645.280038289493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-124257.57427331386</c:v>
+                  <c:v>-124257.55136934225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-213144.882662002</c:v>
+                  <c:v>-213144.85085339961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-162297.68969584</c:v>
+                  <c:v>-162297.66125439503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74003.977624187246</c:v>
+                  <c:v>74003.994434388354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-40277.211905025877</c:v>
+                  <c:v>-40277.189918745775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-143333.21062504547</c:v>
+                  <c:v>-143333.18442762084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-363642.81495832326</c:v>
+                  <c:v>-363642.78078539995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-397516.98668131465</c:v>
+                  <c:v>-397516.95085409982</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-254360.27108871052</c:v>
+                  <c:v>-254360.2412911756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-240040.3504963005</c:v>
+                  <c:v>-240040.32124277297</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101251.01747063315</c:v>
+                  <c:v>101251.03480780637</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-38056.199339807034</c:v>
+                  <c:v>-38056.177322978154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6693.8230967791751</c:v>
+                  <c:v>6693.8436773847789</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-109162.12138128653</c:v>
+                  <c:v>-109162.09722415544</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-295785.61891400721</c:v>
+                  <c:v>-295785.58922273759</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-71194.463841849938</c:v>
+                  <c:v>-71194.440385412425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-31001.786235297099</c:v>
+                  <c:v>-31001.763845571317</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357302.38586644083</c:v>
+                  <c:v>-357302.35515371338</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-569038.1624159636</c:v>
+                  <c:v>-569038.12658955809</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-740855.97895446885</c:v>
+                  <c:v>-740855.9392647678</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-841166.15728709288</c:v>
+                  <c:v>-841166.11550218612</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-895036.83522931859</c:v>
+                  <c:v>-895036.79240500741</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1700515.703858939</c:v>
+                  <c:v>-1700515.6465004189</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-884652.55161810201</c:v>
+                  <c:v>-884652.5075629577</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-795297.53447402176</c:v>
+                  <c:v>-795297.49179758504</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-584975.35850906465</c:v>
+                  <c:v>-585055.85954450164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474191744"/>
-        <c:axId val="474210304"/>
+        <c:axId val="489644416"/>
+        <c:axId val="489646336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474191744"/>
+        <c:axId val="489644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,14 +1289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474210304"/>
+        <c:crossAx val="489646336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474210304"/>
+        <c:axId val="489646336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1347,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474191744"/>
+        <c:crossAx val="489644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,97 +1552,97 @@
                   <c:v>175315.35959658396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68918.763459791298</c:v>
+                  <c:v>68918.763594665201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83212.834398111911</c:v>
+                  <c:v>83212.795509984615</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102303.20113556886</c:v>
+                  <c:v>102303.14153266246</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>397348.36684346898</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>394530.34456032957</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403084.51748726668</c:v>
+                  <c:v>403084.51837763441</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41162159434</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>568670.27932740364</c:v>
+                  <c:v>568670.28002897499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,8 +1657,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="477965696"/>
-        <c:axId val="477963776"/>
+        <c:axId val="490034688"/>
+        <c:axId val="490032128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1914,11 +1918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477956352"/>
-        <c:axId val="477962240"/>
+        <c:axId val="490027648"/>
+        <c:axId val="490029440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477956352"/>
+        <c:axId val="490027648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477962240"/>
+        <c:crossAx val="490029440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477962240"/>
+        <c:axId val="490029440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,12 +2023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477956352"/>
+        <c:crossAx val="490027648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="477963776"/>
+        <c:axId val="490032128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477965696"/>
+        <c:crossAx val="490034688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="477965696"/>
+        <c:axId val="490034688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="477963776"/>
+        <c:crossAx val="490032128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2487,7 +2491,7 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2624,28 +2628,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -2700,25 +2704,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="17">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="R4" s="7">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="S4" s="7">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="T4" s="7">
-        <v>4677.3131849610363</v>
+        <v>4677.3139156625257</v>
       </c>
       <c r="U4" s="7">
         <v>0</v>
       </c>
       <c r="V4" s="18">
-        <v>1.0166019156370816E-2</v>
+        <v>1.0166022917768748E-2</v>
       </c>
       <c r="W4" s="18">
-        <v>1.0166019156370816E-2</v>
+        <v>1.0166022917768748E-2</v>
       </c>
       <c r="Y4" s="21">
         <v>44925</v>
@@ -2779,22 +2783,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="17">
-        <v>3518640.0716485083</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="R5" s="7">
-        <v>3978732.9667154895</v>
+        <v>3978732.8069236916</v>
       </c>
       <c r="S5" s="7">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="T5" s="7">
-        <v>-240040.3504963005</v>
+        <v>-240040.32124277297</v>
       </c>
       <c r="U5" s="7">
         <v>0</v>
       </c>
       <c r="V5" s="18">
-        <v>-6.0330852184447503E-2</v>
+        <v>-6.0330847254950318E-2</v>
       </c>
       <c r="W5" s="18">
         <v>-5.4384005588597684E-2</v>
@@ -2871,28 +2875,28 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="12">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="13">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E7" s="13">
-        <v>68918.763459791298</v>
+        <v>68918.763594665201</v>
       </c>
       <c r="F7" s="14">
-        <v>69404.597662202883</v>
+        <v>69404.597798027549</v>
       </c>
       <c r="G7" s="14">
-        <v>283082.68471965467</v>
+        <v>283082.68485547934</v>
       </c>
       <c r="H7" s="14">
-        <v>281101.09769257216</v>
+        <v>281101.09782744606</v>
       </c>
       <c r="I7" s="14">
-        <v>274576.85953330022</v>
+        <v>274576.85966817412</v>
       </c>
       <c r="J7" s="14">
-        <v>281101.09769257216</v>
+        <v>281101.09782744606</v>
       </c>
       <c r="K7" s="14">
         <v>6524.2381592719466</v>
@@ -2916,31 +2920,31 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="12">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="13">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E8" s="13">
-        <v>83212.834398111911</v>
+        <v>83212.795509984615</v>
       </c>
       <c r="F8" s="14">
-        <v>82307.449393497911</v>
+        <v>82307.410928487167</v>
       </c>
       <c r="G8" s="14">
-        <v>365390.13411315257</v>
+        <v>365390.09578396648</v>
       </c>
       <c r="H8" s="14">
-        <v>369409.4391784615</v>
+        <v>369409.40042765293</v>
       </c>
       <c r="I8" s="14">
-        <v>357789.69393141213</v>
+        <v>357789.65517815872</v>
       </c>
       <c r="J8" s="14">
-        <v>369409.4391784615</v>
+        <v>369409.40042765293</v>
       </c>
       <c r="K8" s="14">
-        <v>11619.745247049374</v>
+        <v>11619.745249494212</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -2957,31 +2961,31 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="12">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="13">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E9" s="13">
-        <v>102303.20113556886</v>
+        <v>102303.14153266246</v>
       </c>
       <c r="F9" s="14">
-        <v>103128.22863662448</v>
+        <v>103128.1685530485</v>
       </c>
       <c r="G9" s="14">
-        <v>468518.36274977704</v>
+        <v>468518.26433701499</v>
       </c>
       <c r="H9" s="14">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="I9" s="14">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="J9" s="14">
-        <v>464770.20825194201</v>
+        <v>464770.11062648369</v>
       </c>
       <c r="K9" s="14">
-        <v>4677.3131849610363</v>
+        <v>4677.3139156625257</v>
       </c>
       <c r="L9" s="13">
         <v>0</v>
@@ -3001,31 +3005,31 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="12">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="13">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E10" s="13">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F10" s="14">
-        <v>198401.94416440517</v>
+        <v>198401.91821950354</v>
       </c>
       <c r="G10" s="14">
-        <v>666920.30691418215</v>
+        <v>666920.18255651859</v>
       </c>
       <c r="H10" s="14">
-        <v>594225.97533383046</v>
+        <v>594225.86453115556</v>
       </c>
       <c r="I10" s="14">
-        <v>636869.02192495705</v>
+        <v>636868.90045189066</v>
       </c>
       <c r="J10" s="14">
-        <v>594225.97533383046</v>
+        <v>594225.86453115556</v>
       </c>
       <c r="K10" s="14">
-        <v>-42643.046591126593</v>
+        <v>-42643.035920735099</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -3045,31 +3049,31 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="12">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="13">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E11" s="13">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F11" s="14">
-        <v>173215.85311749773</v>
+        <v>173215.85398222785</v>
       </c>
       <c r="G11" s="14">
-        <v>840136.1600316799</v>
+        <v>840136.03653874644</v>
       </c>
       <c r="H11" s="14">
-        <v>741000.11758503818</v>
+        <v>741000.00866426725</v>
       </c>
       <c r="I11" s="14">
-        <v>789645.40941293107</v>
+        <v>789645.28870255675</v>
       </c>
       <c r="J11" s="14">
-        <v>741000.11758503818</v>
+        <v>741000.00866426725</v>
       </c>
       <c r="K11" s="14">
-        <v>-48645.291827892885</v>
+        <v>-48645.280038289493</v>
       </c>
       <c r="L11" s="13">
         <v>0</v>
@@ -3089,31 +3093,31 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="12">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="13">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E12" s="13">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F12" s="14">
-        <v>377497.97080263944</v>
+        <v>377497.97231435409</v>
       </c>
       <c r="G12" s="14">
-        <v>1217634.1308343194</v>
+        <v>1217634.0088531005</v>
       </c>
       <c r="H12" s="14">
-        <v>964366.22639526217</v>
+        <v>964366.12978613726</v>
       </c>
       <c r="I12" s="14">
-        <v>1088623.800668576</v>
+        <v>1088623.6811554795</v>
       </c>
       <c r="J12" s="14">
-        <v>964366.22639526217</v>
+        <v>964366.12978613726</v>
       </c>
       <c r="K12" s="14">
-        <v>-124257.57427331386</v>
+        <v>-124257.55136934225</v>
       </c>
       <c r="L12" s="13">
         <v>0</v>
@@ -3131,31 +3135,31 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="12">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="13">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E13" s="13">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F13" s="14">
-        <v>598337.23208346288</v>
+        <v>598337.23380903399</v>
       </c>
       <c r="G13" s="14">
-        <v>1815971.3629177823</v>
+        <v>1815971.2426621346</v>
       </c>
       <c r="H13" s="14">
-        <v>1305683.3770328257</v>
+        <v>1305683.2905690172</v>
       </c>
       <c r="I13" s="14">
-        <v>1518828.2596948277</v>
+        <v>1518828.1414224168</v>
       </c>
       <c r="J13" s="14">
-        <v>1305683.3770328257</v>
+        <v>1305683.2905690172</v>
       </c>
       <c r="K13" s="14">
-        <v>-213144.882662002</v>
+        <v>-213144.85085339961</v>
       </c>
       <c r="L13" s="13">
         <v>0</v>
@@ -3173,31 +3177,31 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="12">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="13">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E14" s="13">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F14" s="14">
-        <v>595268.92018481973</v>
+        <v>595268.92175436951</v>
       </c>
       <c r="G14" s="14">
-        <v>2411240.2831026018</v>
+        <v>2411240.1644165041</v>
       </c>
       <c r="H14" s="14">
-        <v>1801196.440887809</v>
+        <v>1801196.3522292967</v>
       </c>
       <c r="I14" s="14">
-        <v>1963494.130583649</v>
+        <v>1963494.0134836917</v>
       </c>
       <c r="J14" s="14">
-        <v>1801196.440887809</v>
+        <v>1801196.3522292967</v>
       </c>
       <c r="K14" s="14">
-        <v>-162297.68969584</v>
+        <v>-162297.66125439503</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -3214,31 +3218,31 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="12">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="13">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E15" s="13">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F15" s="14">
-        <v>186057.73378250105</v>
+        <v>186057.73483051939</v>
       </c>
       <c r="G15" s="14">
-        <v>2597298.0168851027</v>
+        <v>2597297.8992470233</v>
       </c>
       <c r="H15" s="14">
-        <v>2194716.898577204</v>
+        <v>2194716.7991730236</v>
       </c>
       <c r="I15" s="14">
-        <v>2120712.9209530167</v>
+        <v>2120712.8047386352</v>
       </c>
       <c r="J15" s="14">
-        <v>2194716.898577204</v>
+        <v>2194716.7991730236</v>
       </c>
       <c r="K15" s="14">
-        <v>74003.977624187246</v>
+        <v>74003.994434388354</v>
       </c>
       <c r="L15" s="13">
         <v>0</v>
@@ -3255,31 +3259,31 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="12">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="13">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E16" s="13">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F16" s="14">
-        <v>265367.55254019768</v>
+        <v>265367.55320207629</v>
       </c>
       <c r="G16" s="14">
-        <v>2862665.5694253002</v>
+        <v>2862665.4524490996</v>
       </c>
       <c r="H16" s="14">
-        <v>2292995.1183796148</v>
+        <v>2292995.0246816785</v>
       </c>
       <c r="I16" s="14">
-        <v>2333272.3302846407</v>
+        <v>2333272.2146004243</v>
       </c>
       <c r="J16" s="14">
-        <v>2292995.1183796148</v>
+        <v>2292995.0246816785</v>
       </c>
       <c r="K16" s="14">
-        <v>-40277.211905025877</v>
+        <v>-40277.189918745775</v>
       </c>
       <c r="L16" s="13">
         <v>0</v>
@@ -3296,31 +3300,31 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="12">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="13">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E17" s="13">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F17" s="14">
-        <v>330226.98221817799</v>
+        <v>330226.98360745073</v>
       </c>
       <c r="G17" s="14">
-        <v>3192892.5516434782</v>
+        <v>3192892.4360565506</v>
       </c>
       <c r="H17" s="14">
-        <v>2442562.7563325665</v>
+        <v>2442562.6679085684</v>
       </c>
       <c r="I17" s="14">
-        <v>2585895.966957612</v>
+        <v>2585895.8523361892</v>
       </c>
       <c r="J17" s="14">
-        <v>2442562.7563325665</v>
+        <v>2442562.6679085684</v>
       </c>
       <c r="K17" s="14">
-        <v>-143333.21062504547</v>
+        <v>-143333.18442762084</v>
       </c>
       <c r="L17" s="13">
         <v>0</v>
@@ -3337,31 +3341,31 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="12">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="13">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E18" s="13">
-        <v>397348.414326831</v>
+        <v>397348.36684346898</v>
       </c>
       <c r="F18" s="14">
-        <v>570902.91057528066</v>
+        <v>570902.84235205734</v>
       </c>
       <c r="G18" s="14">
-        <v>3763795.4622187587</v>
+        <v>3763795.2784086079</v>
       </c>
       <c r="H18" s="14">
-        <v>2619601.5663261195</v>
+        <v>2619601.4383942583</v>
       </c>
       <c r="I18" s="14">
-        <v>2983244.3812844427</v>
+        <v>2983244.2191796582</v>
       </c>
       <c r="J18" s="14">
-        <v>2619601.5663261195</v>
+        <v>2619601.4383942583</v>
       </c>
       <c r="K18" s="14">
-        <v>-363642.81495832326</v>
+        <v>-363642.78078539995</v>
       </c>
       <c r="L18" s="13">
         <v>0</v>
@@ -3378,31 +3382,31 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="12">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="13">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E19" s="13">
-        <v>394530.34380952618</v>
+        <v>394530.34456032957</v>
       </c>
       <c r="F19" s="14">
-        <v>574279.99596446904</v>
+        <v>574279.9970573415</v>
       </c>
       <c r="G19" s="14">
-        <v>4338075.458183228</v>
+        <v>4338075.2754659494</v>
       </c>
       <c r="H19" s="14">
-        <v>2980257.7384126545</v>
+        <v>2980257.6128858882</v>
       </c>
       <c r="I19" s="14">
-        <v>3377774.7250939691</v>
+        <v>3377774.563739988</v>
       </c>
       <c r="J19" s="14">
-        <v>2980257.7384126545</v>
+        <v>2980257.6128858882</v>
       </c>
       <c r="K19" s="14">
-        <v>-397516.98668131465</v>
+        <v>-397516.95085409982</v>
       </c>
       <c r="L19" s="13">
         <v>0</v>
@@ -3419,31 +3423,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="12">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="13">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E20" s="13">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F20" s="14">
-        <v>435292.86117702356</v>
+        <v>435292.8625560918</v>
       </c>
       <c r="G20" s="14">
-        <v>4773368.3193602515</v>
+        <v>4773368.1380220409</v>
       </c>
       <c r="H20" s="14">
-        <v>3436825.3265065444</v>
+        <v>3436825.1959430273</v>
       </c>
       <c r="I20" s="14">
-        <v>3691185.5975952549</v>
+        <v>3691185.4372342029</v>
       </c>
       <c r="J20" s="14">
-        <v>3436825.3265065444</v>
+        <v>3436825.1959430273</v>
       </c>
       <c r="K20" s="14">
-        <v>-254360.27108871052</v>
+        <v>-254360.2412911756</v>
       </c>
       <c r="L20" s="13">
         <v>0</v>
@@ -3460,31 +3464,31 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="12">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="13">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E21" s="13">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F21" s="14">
-        <v>397714.20899415982</v>
+        <v>397714.20978151012</v>
       </c>
       <c r="G21" s="14">
-        <v>5171082.528354411</v>
+        <v>5171082.3478035508</v>
       </c>
       <c r="H21" s="14">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="I21" s="14">
-        <v>3978732.9667154895</v>
+        <v>3978732.8069236916</v>
       </c>
       <c r="J21" s="14">
-        <v>3738692.616219189</v>
+        <v>3738692.4856809187</v>
       </c>
       <c r="K21" s="14">
-        <v>-240040.3504963005</v>
+        <v>-240040.32124277297</v>
       </c>
       <c r="L21" s="13">
         <v>0</v>
@@ -3504,28 +3508,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D22" s="13">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E22" s="13">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F22" s="14">
-        <v>186894.91535372063</v>
+        <v>186894.91591756771</v>
       </c>
       <c r="G22" s="14">
-        <v>5357977.443708132</v>
+        <v>5357977.2637211187</v>
       </c>
       <c r="H22" s="14">
-        <v>4227444.0676769307</v>
+        <v>4227443.9256671816</v>
       </c>
       <c r="I22" s="14">
-        <v>4126193.0502062975</v>
+        <v>4126192.8908593752</v>
       </c>
       <c r="J22" s="14">
-        <v>4227444.0676769307</v>
+        <v>4227443.9256671816</v>
       </c>
       <c r="K22" s="14">
-        <v>101251.01747063315</v>
+        <v>101251.03480780637</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
@@ -3542,31 +3546,31 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="12">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="13">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E23" s="13">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F23" s="14">
-        <v>235764.02482402488</v>
+        <v>235764.02528342407</v>
       </c>
       <c r="G23" s="14">
-        <v>5593741.4685321571</v>
+        <v>5593741.2890045429</v>
       </c>
       <c r="H23" s="14">
-        <v>4268024.8045053268</v>
+        <v>4268024.6675257552</v>
       </c>
       <c r="I23" s="14">
-        <v>4306081.0038451338</v>
+        <v>4306080.8448487334</v>
       </c>
       <c r="J23" s="14">
-        <v>4268024.8045053268</v>
+        <v>4268024.6675257552</v>
       </c>
       <c r="K23" s="14">
-        <v>-38056.199339807034</v>
+        <v>-38056.177322978154</v>
       </c>
       <c r="L23" s="13">
         <v>0</v>
@@ -3583,31 +3587,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E24" s="13">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F24" s="14">
-        <v>199044.01595582286</v>
+        <v>199044.01665749171</v>
       </c>
       <c r="G24" s="14">
-        <v>5792785.4844879797</v>
+        <v>5792785.305662035</v>
       </c>
       <c r="H24" s="14">
-        <v>4466237.7687487239</v>
+        <v>4466237.6308739157</v>
       </c>
       <c r="I24" s="14">
-        <v>4459543.9456519447</v>
+        <v>4459543.787196531</v>
       </c>
       <c r="J24" s="14">
-        <v>4466237.7687487239</v>
+        <v>4466237.6308739157</v>
       </c>
       <c r="K24" s="14">
-        <v>6693.8230967791751</v>
+        <v>6693.8436773847789</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3624,31 +3628,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="13">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E25" s="13">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F25" s="14">
-        <v>227335.39539677446</v>
+        <v>227335.39570190487</v>
       </c>
       <c r="G25" s="14">
-        <v>6020120.8798847543</v>
+        <v>6020120.7013639398</v>
       </c>
       <c r="H25" s="14">
-        <v>4521110.7032867828</v>
+        <v>4521110.569217653</v>
       </c>
       <c r="I25" s="14">
-        <v>4630272.8246680694</v>
+        <v>4630272.6664418085</v>
       </c>
       <c r="J25" s="14">
-        <v>4521110.7032867828</v>
+        <v>4521110.569217653</v>
       </c>
       <c r="K25" s="14">
-        <v>-109162.12138128653</v>
+        <v>-109162.09722415544</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3665,31 +3669,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E26" s="13">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F26" s="14">
-        <v>396775.38466316788</v>
+        <v>396775.38504576066</v>
       </c>
       <c r="G26" s="14">
-        <v>6416896.2645479217</v>
+        <v>6416896.0864097001</v>
       </c>
       <c r="H26" s="14">
-        <v>4620165.4940633783</v>
+        <v>4620165.3658038536</v>
       </c>
       <c r="I26" s="14">
-        <v>4915951.1129773855</v>
+        <v>4915950.9550265912</v>
       </c>
       <c r="J26" s="14">
-        <v>4620165.4940633783</v>
+        <v>4620165.3658038536</v>
       </c>
       <c r="K26" s="14">
-        <v>-295785.61891400721</v>
+        <v>-295785.58922273759</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3706,31 +3710,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E27" s="13">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F27" s="14">
-        <v>281903.03433562221</v>
+        <v>281903.03468782775</v>
       </c>
       <c r="G27" s="14">
-        <v>6698799.2988835443</v>
+        <v>6698799.1210975274</v>
       </c>
       <c r="H27" s="14">
-        <v>5057593.4387147119</v>
+        <v>5057593.3044862701</v>
       </c>
       <c r="I27" s="14">
-        <v>5128787.9025565619</v>
+        <v>5128787.7448716825</v>
       </c>
       <c r="J27" s="14">
-        <v>5057593.4387147119</v>
+        <v>5057593.3044862701</v>
       </c>
       <c r="K27" s="14">
-        <v>-71194.463841849938</v>
+        <v>-71194.440385412425</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3747,31 +3751,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="13">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E28" s="13">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F28" s="14">
-        <v>243767.98899201537</v>
+        <v>243767.98969283653</v>
       </c>
       <c r="G28" s="14">
-        <v>6942567.2878755592</v>
+        <v>6942567.1107903644</v>
       </c>
       <c r="H28" s="14">
-        <v>5283293.5504810195</v>
+        <v>5283293.4157191906</v>
       </c>
       <c r="I28" s="14">
-        <v>5314295.3367163166</v>
+        <v>5314295.1795647619</v>
       </c>
       <c r="J28" s="14">
-        <v>5283293.5504810195</v>
+        <v>5283293.4157191906</v>
       </c>
       <c r="K28" s="14">
-        <v>-31001.786235297099</v>
+        <v>-31001.763845571317</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3788,31 +3792,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E29" s="13">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F29" s="14">
-        <v>358670.347954394</v>
+        <v>358670.34870577598</v>
       </c>
       <c r="G29" s="14">
-        <v>7301237.6358299535</v>
+        <v>7301237.4594961405</v>
       </c>
       <c r="H29" s="14">
-        <v>5213083.5745005477</v>
+        <v>5213083.448598207</v>
       </c>
       <c r="I29" s="14">
-        <v>5570385.9603669886</v>
+        <v>5570385.8037519203</v>
       </c>
       <c r="J29" s="14">
-        <v>5213083.5745005477</v>
+        <v>5213083.448598207</v>
       </c>
       <c r="K29" s="14">
-        <v>-357302.38586644083</v>
+        <v>-357302.35515371338</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3832,28 +3836,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E30" s="13">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F30" s="14">
-        <v>508657.86839762604</v>
+        <v>508657.8691271703</v>
       </c>
       <c r="G30" s="14">
-        <v>7809895.5042275796</v>
+        <v>7809895.3286233107</v>
       </c>
       <c r="H30" s="14">
-        <v>5349778.4390161335</v>
+        <v>5349778.3187272092</v>
       </c>
       <c r="I30" s="14">
-        <v>5918816.6014320971</v>
+        <v>5918816.4453167673</v>
       </c>
       <c r="J30" s="14">
-        <v>5349778.4390161335</v>
+        <v>5349778.3187272092</v>
       </c>
       <c r="K30" s="14">
-        <v>-569038.1624159636</v>
+        <v>-569038.12658955809</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3870,31 +3874,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E31" s="13">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F31" s="14">
-        <v>549310.60370153643</v>
+        <v>549310.60470490914</v>
       </c>
       <c r="G31" s="14">
-        <v>8359206.1079291161</v>
+        <v>8359205.9333282197</v>
       </c>
       <c r="H31" s="14">
-        <v>5542153.5459215222</v>
+        <v>5542153.4301611297</v>
       </c>
       <c r="I31" s="14">
-        <v>6283009.524875991</v>
+        <v>6283009.3694258975</v>
       </c>
       <c r="J31" s="14">
-        <v>5542153.5459215222</v>
+        <v>5542153.4301611297</v>
       </c>
       <c r="K31" s="14">
-        <v>-740855.97895446885</v>
+        <v>-740855.9392647678</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3911,31 +3915,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E32" s="13">
-        <v>403084.51748726668</v>
+        <v>403084.51837763441</v>
       </c>
       <c r="F32" s="14">
-        <v>619177.42444764997</v>
+        <v>619177.42581534223</v>
       </c>
       <c r="G32" s="14">
-        <v>8978383.5323767662</v>
+        <v>8978383.3591435626</v>
       </c>
       <c r="H32" s="14">
-        <v>5844927.8850761652</v>
+        <v>5844927.7723013461</v>
       </c>
       <c r="I32" s="14">
-        <v>6686094.0423632581</v>
+        <v>6686093.8878035322</v>
       </c>
       <c r="J32" s="14">
-        <v>5844927.8850761652</v>
+        <v>5844927.7723013461</v>
       </c>
       <c r="K32" s="14">
-        <v>-841166.15728709288</v>
+        <v>-841166.11550218612</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3952,31 +3956,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E33" s="13">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F33" s="14">
-        <v>610651.59777762846</v>
+        <v>610651.59798452829</v>
       </c>
       <c r="G33" s="14">
-        <v>9589035.1301543955</v>
+        <v>9589034.9571280908</v>
       </c>
       <c r="H33" s="14">
-        <v>6184927.4760532547</v>
+        <v>6184927.364451291</v>
       </c>
       <c r="I33" s="14">
-        <v>7079964.3112825733</v>
+        <v>7079964.1568562984</v>
       </c>
       <c r="J33" s="14">
-        <v>6184927.4760532547</v>
+        <v>6184927.364451291</v>
       </c>
       <c r="K33" s="14">
-        <v>-895036.83522931859</v>
+        <v>-895036.79240500741</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3993,31 +3997,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E34" s="13">
-        <v>564695.41162159434</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F34" s="14">
-        <v>1006587.2053139294</v>
+        <v>1006587.2055691759</v>
       </c>
       <c r="G34" s="14">
-        <v>10595622.335468326</v>
+        <v>10595622.162697267</v>
       </c>
       <c r="H34" s="14">
-        <v>5944144.0190452291</v>
+        <v>5944143.9221206671</v>
       </c>
       <c r="I34" s="14">
-        <v>7644659.7229041681</v>
+        <v>7644659.568621086</v>
       </c>
       <c r="J34" s="14">
-        <v>5944144.0190452291</v>
+        <v>5944143.9221206671</v>
       </c>
       <c r="K34" s="14">
-        <v>-1700515.703858939</v>
+        <v>-1700515.6465004189</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -4034,31 +4038,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E35" s="13">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F35" s="14">
-        <v>573732.17219783086</v>
+        <v>573732.17263077828</v>
       </c>
       <c r="G35" s="14">
-        <v>11169354.507666156</v>
+        <v>11169354.335328044</v>
       </c>
       <c r="H35" s="14">
-        <v>7126048.3037141254</v>
+        <v>7126048.1937624086</v>
       </c>
       <c r="I35" s="14">
-        <v>8010700.8553322274</v>
+        <v>8010700.7013253663</v>
       </c>
       <c r="J35" s="14">
-        <v>7126048.3037141254</v>
+        <v>7126048.1937624086</v>
       </c>
       <c r="K35" s="14">
-        <v>-884652.55161810201</v>
+        <v>-884652.5075629577</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4075,31 +4079,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E36" s="13">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F36" s="14">
-        <v>515245.18223669764</v>
+        <v>510770.69075749943</v>
       </c>
       <c r="G36" s="14">
-        <v>11684599.689902853</v>
+        <v>11680125.026085544</v>
       </c>
       <c r="H36" s="14">
-        <v>7548251.7228330187</v>
+        <v>7545361.0898832837</v>
       </c>
       <c r="I36" s="14">
-        <v>8343549.2573070405</v>
+        <v>8340658.5816808688</v>
       </c>
       <c r="J36" s="14">
-        <v>7548251.7228330187</v>
+        <v>7545361.0898832837</v>
       </c>
       <c r="K36" s="14">
-        <v>-795297.53447402176</v>
+        <v>-795297.49179758504</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4116,31 +4120,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E37" s="13">
-        <v>568670.27932740364</v>
+        <v>568670.28002897499</v>
       </c>
       <c r="F37" s="14">
-        <v>856431.1761618203</v>
+        <v>856431.17721840367</v>
       </c>
       <c r="G37" s="14">
-        <v>12541030.866064673</v>
+        <v>12536556.203303948</v>
       </c>
       <c r="H37" s="14">
-        <v>8327244.1781253787</v>
+        <v>8324273.0021653427</v>
       </c>
       <c r="I37" s="14">
-        <v>8912219.5366344433</v>
+        <v>8909328.8617098443</v>
       </c>
       <c r="J37" s="14">
-        <v>8327244.1781253787</v>
+        <v>8324273.0021653427</v>
       </c>
       <c r="K37" s="14">
-        <v>-584975.35850906465</v>
+        <v>-585055.85954450164</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -1242,11 +1238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489644416"/>
-        <c:axId val="489646336"/>
+        <c:axId val="527131392"/>
+        <c:axId val="527132928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489644416"/>
+        <c:axId val="527131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,14 +1285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489646336"/>
+        <c:crossAx val="527132928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489646336"/>
+        <c:axId val="527132928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1343,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489644416"/>
+        <c:crossAx val="527131392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1657,8 +1653,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490034688"/>
-        <c:axId val="490032128"/>
+        <c:axId val="561422720"/>
+        <c:axId val="561416832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1918,11 +1914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490027648"/>
-        <c:axId val="490029440"/>
+        <c:axId val="555408384"/>
+        <c:axId val="561414912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490027648"/>
+        <c:axId val="555408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,14 +1961,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490029440"/>
+        <c:crossAx val="561414912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490029440"/>
+        <c:axId val="561414912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,12 +2019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490027648"/>
+        <c:crossAx val="555408384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490032128"/>
+        <c:axId val="561416832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,12 +2061,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490034688"/>
+        <c:crossAx val="561422720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490034688"/>
+        <c:axId val="561422720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2079,7 +2075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490032128"/>
+        <c:crossAx val="561416832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,28 +2624,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -30,7 +30,7 @@
   </si>
   <si>
     <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PE</t>
@@ -264,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +323,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,7 +477,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -581,6 +582,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +594,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -655,46 +659,49 @@
                   <c:v>4306080.8448487334</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4459543.787196531</c:v>
+                  <c:v>4459543.787068801</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4630272.6664418085</c:v>
+                  <c:v>4630272.6665043449</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4915950.9550265912</c:v>
+                  <c:v>4915950.9553354559</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5128787.7448716825</c:v>
+                  <c:v>5128787.7453484293</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5314295.1795647619</c:v>
+                  <c:v>5314295.1798980944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5570385.8037519203</c:v>
+                  <c:v>5570385.8039889373</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5918816.4453167673</c:v>
+                  <c:v>5918816.445550561</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6283009.3694258975</c:v>
+                  <c:v>6283009.3694882477</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6686093.8878035322</c:v>
+                  <c:v>6686093.8874773122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7079964.1568562984</c:v>
+                  <c:v>7079964.156877039</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7644659.568621086</c:v>
+                  <c:v>7644659.5690554995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8010700.7013253663</c:v>
+                  <c:v>8010700.7019223478</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8340658.5816808688</c:v>
+                  <c:v>8340658.5824809633</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8909328.8617098443</c:v>
+                  <c:v>8909328.8625392579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9422505.3887087591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +744,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -842,6 +849,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,7 +861,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -916,46 +926,49 @@
                   <c:v>4268024.6675257552</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4466237.6308739157</c:v>
+                  <c:v>4466237.6307461848</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4521110.569217653</c:v>
+                  <c:v>4521110.5692835022</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4620165.3658038536</c:v>
+                  <c:v>4620165.3661133135</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5057593.3044862701</c:v>
+                  <c:v>5057593.3049786557</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5283293.4157191906</c:v>
+                  <c:v>5283293.4160720743</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5213083.448598207</c:v>
+                  <c:v>5213083.4488329813</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5349778.3187272092</c:v>
+                  <c:v>5349778.3189492244</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5542153.4301611297</c:v>
+                  <c:v>5542153.4302045703</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5844927.7723013461</c:v>
+                  <c:v>5844927.7719554286</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6184927.364451291</c:v>
+                  <c:v>6184927.3644555239</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5944143.9221206671</c:v>
+                  <c:v>5944143.9225380206</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7126048.1937624086</c:v>
+                  <c:v>7126048.1943996148</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7545361.0898832837</c:v>
+                  <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324273.0021653427</c:v>
+                  <c:v>8324273.0030666078</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8661937.7603045385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,7 +1011,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1103,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1128,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1177,46 +1193,49 @@
                   <c:v>-38056.177322978154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6693.8436773847789</c:v>
+                  <c:v>6693.8436773838475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-109162.09722415544</c:v>
+                  <c:v>-109162.09722084273</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-295785.58922273759</c:v>
+                  <c:v>-295785.58922214247</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-71194.440385412425</c:v>
+                  <c:v>-71194.440369773656</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-31001.763845571317</c:v>
+                  <c:v>-31001.763826020062</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-357302.35515371338</c:v>
+                  <c:v>-357302.355155956</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-569038.12658955809</c:v>
+                  <c:v>-569038.12660133652</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-740855.9392647678</c:v>
+                  <c:v>-740855.93928367738</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-841166.11550218612</c:v>
+                  <c:v>-841166.11552188359</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-895036.79240500741</c:v>
+                  <c:v>-895036.7924215151</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1700515.6465004189</c:v>
+                  <c:v>-1700515.6465174789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-884652.5075629577</c:v>
+                  <c:v>-884652.50752273295</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-795297.49179758504</c:v>
+                  <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585055.85954450164</c:v>
+                  <c:v>-585055.8594726501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-760567.62840422057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527131392"/>
-        <c:axId val="527132928"/>
+        <c:axId val="439446528"/>
+        <c:axId val="439476992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527131392"/>
+        <c:axId val="439446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,14 +1304,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527132928"/>
+        <c:crossAx val="439476992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
+        <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527132928"/>
+        <c:axId val="439476992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1362,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527131392"/>
+        <c:crossAx val="439446528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,7 +1553,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1599,46 +1618,49 @@
                   <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>153462.94234779794</c:v>
+                  <c:v>153462.94222006755</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>170728.87924527752</c:v>
+                  <c:v>170728.87943554402</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285678.28858478251</c:v>
+                  <c:v>285678.28883111075</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>212836.78984509152</c:v>
+                  <c:v>212836.79001297336</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>185507.43469307973</c:v>
+                  <c:v>185507.43454966496</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>256090.62418715825</c:v>
+                  <c:v>256090.62409084282</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>348430.6415648465</c:v>
+                  <c:v>348430.64156162366</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>364192.9241091304</c:v>
+                  <c:v>364192.92393768637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403084.51837763441</c:v>
+                  <c:v>403084.5179890641</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>393870.26905276586</c:v>
+                  <c:v>393870.26939972723</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>564695.41176478763</c:v>
+                  <c:v>564695.41217846051</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366041.1327042802</c:v>
+                  <c:v>366041.13286684826</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>329957.88035550242</c:v>
+                  <c:v>329957.88055861578</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>568670.28002897499</c:v>
+                  <c:v>568670.28005829395</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>513176.5261695009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,8 +1675,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561422720"/>
-        <c:axId val="561416832"/>
+        <c:axId val="460961280"/>
+        <c:axId val="460958336"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1679,7 +1701,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1784,6 +1806,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,7 +1818,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1898,6 +1923,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,11 +1942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555408384"/>
-        <c:axId val="561414912"/>
+        <c:axId val="460949760"/>
+        <c:axId val="460955648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="555408384"/>
+        <c:axId val="460949760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1961,14 +1989,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561414912"/>
+        <c:crossAx val="460955648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561414912"/>
+        <c:axId val="460955648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2019,12 +2047,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555408384"/>
+        <c:crossAx val="460949760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561416832"/>
+        <c:axId val="460958336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2089,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561422720"/>
+        <c:crossAx val="460961280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561422720"/>
+        <c:axId val="460961280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2075,7 +2103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561416832"/>
+        <c:crossAx val="460958336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2484,7 +2512,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2651,11 +2679,21 @@
         <v>44561</v>
       </c>
       <c r="Z3" s="10">
-        <v>460092.89506698097</v>
+        <v>460092.79671082116</v>
       </c>
       <c r="AA3" s="10">
         <f>-Z3</f>
-        <v>-460092.89506698097</v>
+        <v>-460092.79671082116</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>460092.79671082116</v>
+      </c>
+      <c r="AD3" s="10">
+        <f>-AC3</f>
+        <v>-460092.79671082116</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -2724,15 +2762,22 @@
         <v>44925</v>
       </c>
       <c r="Z4" s="8">
-        <v>3518640.0716485083</v>
+        <v>3518640.0102128703</v>
       </c>
       <c r="AA4" s="8">
         <f>-Z4</f>
-        <v>-3518640.0716485083</v>
-      </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
+        <v>-3518640.0102128703</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AD4" s="8">
+        <f>-AC4</f>
+        <v>-3518640.0102128703</v>
+      </c>
       <c r="AE4" s="16"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -2797,18 +2842,25 @@
         <v>-6.0330847254950318E-2</v>
       </c>
       <c r="W5" s="18">
-        <v>-5.4384005588597684E-2</v>
+        <v>-5.4384002055657077E-2</v>
       </c>
       <c r="Y5" s="21">
         <v>44925</v>
       </c>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8">
-        <v>3738692.616219189</v>
-      </c>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
+        <v>3738692.4856809187</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>3246072.3111430067</v>
+      </c>
+      <c r="AD5" s="8">
+        <f>-AC5</f>
+        <v>-3246072.3111430067</v>
+      </c>
       <c r="AE5" s="16"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -2853,14 +2905,42 @@
       <c r="M6" s="8">
         <v>1</v>
       </c>
+      <c r="P6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="R6" s="7">
+        <v>7079964.156877039</v>
+      </c>
+      <c r="S6" s="7">
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="T6" s="7">
+        <v>-895036.7924215151</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="18">
+        <v>-0.12641826605183187</v>
+      </c>
+      <c r="W6" s="18">
+        <v>-7.9485707976947206E-2</v>
+      </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="19">
-        <v>-5.4384005588597684E-2</v>
-      </c>
-      <c r="AB6" s="8"/>
+        <v>-5.4384002055657077E-2</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="19"/>
+      <c r="AD6" s="19">
+        <v>6328433.3766216012</v>
+      </c>
       <c r="AE6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -2906,6 +2986,9 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
+      <c r="AD7" s="9">
+        <v>-7.9485707976947206E-2</v>
+      </c>
       <c r="AG7" s="9"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -3583,31 +3666,31 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="12">
-        <v>24.159999847412109</v>
+        <v>24.159999849999998</v>
       </c>
       <c r="D24" s="13">
-        <v>30.393087189136843</v>
+        <v>30.393087189130767</v>
       </c>
       <c r="E24" s="13">
-        <v>153462.94234779794</v>
+        <v>153462.94222006755</v>
       </c>
       <c r="F24" s="14">
-        <v>199044.01665749171</v>
+        <v>199044.01649182325</v>
       </c>
       <c r="G24" s="14">
-        <v>5792785.305662035</v>
+        <v>5792785.3054963658</v>
       </c>
       <c r="H24" s="14">
-        <v>4466237.6308739157</v>
+        <v>4466237.6307461848</v>
       </c>
       <c r="I24" s="14">
-        <v>4459543.787196531</v>
+        <v>4459543.787068801</v>
       </c>
       <c r="J24" s="14">
-        <v>4466237.6308739157</v>
+        <v>4466237.6307461848</v>
       </c>
       <c r="K24" s="14">
-        <v>6693.8436773847789</v>
+        <v>6693.8436773838475</v>
       </c>
       <c r="L24" s="13">
         <v>0</v>
@@ -3624,31 +3707,31 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="12">
-        <v>23.579999923706055</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="13">
-        <v>30.1543821056874</v>
+        <v>30.154382105644711</v>
       </c>
       <c r="E25" s="13">
-        <v>170728.87924527752</v>
+        <v>170728.87943554402</v>
       </c>
       <c r="F25" s="14">
-        <v>227335.39570190487</v>
+        <v>227335.39595525572</v>
       </c>
       <c r="G25" s="14">
-        <v>6020120.7013639398</v>
+        <v>6020120.7014516219</v>
       </c>
       <c r="H25" s="14">
-        <v>4521110.569217653</v>
+        <v>4521110.5692835022</v>
       </c>
       <c r="I25" s="14">
-        <v>4630272.6664418085</v>
+        <v>4630272.6665043449</v>
       </c>
       <c r="J25" s="14">
-        <v>4521110.569217653</v>
+        <v>4521110.5692835022</v>
       </c>
       <c r="K25" s="14">
-        <v>-109162.09722415544</v>
+        <v>-109162.09722084273</v>
       </c>
       <c r="L25" s="13">
         <v>0</v>
@@ -3665,31 +3748,31 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="12">
-        <v>21.329999923706055</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="13">
-        <v>29.834329254302094</v>
+        <v>29.834329254262499</v>
       </c>
       <c r="E26" s="13">
-        <v>285678.28858478251</v>
+        <v>285678.28883111075</v>
       </c>
       <c r="F26" s="14">
-        <v>396775.38504576066</v>
+        <v>396775.38538788323</v>
       </c>
       <c r="G26" s="14">
-        <v>6416896.0864097001</v>
+        <v>6416896.0868395055</v>
       </c>
       <c r="H26" s="14">
-        <v>4620165.3658038536</v>
+        <v>4620165.3661133135</v>
       </c>
       <c r="I26" s="14">
-        <v>4915950.9550265912</v>
+        <v>4915950.9553354559</v>
       </c>
       <c r="J26" s="14">
-        <v>4620165.3658038536</v>
+        <v>4620165.3661133135</v>
       </c>
       <c r="K26" s="14">
-        <v>-295785.58922273759</v>
+        <v>-295785.58922214247</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -3706,31 +3789,31 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="12">
-        <v>22.200000762939453</v>
+        <v>22.200000760000002</v>
       </c>
       <c r="D27" s="13">
-        <v>29.540486551111261</v>
+        <v>29.540486551066831</v>
       </c>
       <c r="E27" s="13">
-        <v>212836.78984509152</v>
+        <v>212836.79001297336</v>
       </c>
       <c r="F27" s="14">
-        <v>281903.03468782775</v>
+        <v>281903.03491018777</v>
       </c>
       <c r="G27" s="14">
-        <v>6698799.1210975274</v>
+        <v>6698799.1217496935</v>
       </c>
       <c r="H27" s="14">
-        <v>5057593.3044862701</v>
+        <v>5057593.3049786557</v>
       </c>
       <c r="I27" s="14">
-        <v>5128787.7448716825</v>
+        <v>5128787.7453484293</v>
       </c>
       <c r="J27" s="14">
-        <v>5057593.3044862701</v>
+        <v>5057593.3049786557</v>
       </c>
       <c r="K27" s="14">
-        <v>-71194.440385412425</v>
+        <v>-71194.440369773656</v>
       </c>
       <c r="L27" s="13">
         <v>0</v>
@@ -3747,31 +3830,31 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="12">
-        <v>22.409999847412109</v>
+        <v>22.409999849999998</v>
       </c>
       <c r="D28" s="13">
-        <v>29.26302162741802</v>
+        <v>29.263021627356892</v>
       </c>
       <c r="E28" s="13">
-        <v>185507.43469307973</v>
+        <v>185507.43454966496</v>
       </c>
       <c r="F28" s="14">
-        <v>243767.98969283653</v>
+        <v>243767.98950438085</v>
       </c>
       <c r="G28" s="14">
-        <v>6942567.1107903644</v>
+        <v>6942567.1112540746</v>
       </c>
       <c r="H28" s="14">
-        <v>5283293.4157191906</v>
+        <v>5283293.4160720743</v>
       </c>
       <c r="I28" s="14">
-        <v>5314295.1795647619</v>
+        <v>5314295.1798980944</v>
       </c>
       <c r="J28" s="14">
-        <v>5283293.4157191906</v>
+        <v>5283293.4160720743</v>
       </c>
       <c r="K28" s="14">
-        <v>-31001.763845571317</v>
+        <v>-31001.763826020062</v>
       </c>
       <c r="L28" s="13">
         <v>0</v>
@@ -3788,31 +3871,31 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="12">
-        <v>20.899999618530273</v>
+        <v>20.899999619999999</v>
       </c>
       <c r="D29" s="13">
-        <v>28.951898116056832</v>
+        <v>28.951898116012401</v>
       </c>
       <c r="E29" s="13">
-        <v>256090.62418715825</v>
+        <v>256090.62409084282</v>
       </c>
       <c r="F29" s="14">
-        <v>358670.34870577598</v>
+        <v>358670.34857088042</v>
       </c>
       <c r="G29" s="14">
-        <v>7301237.4594961405</v>
+        <v>7301237.4598249551</v>
       </c>
       <c r="H29" s="14">
-        <v>5213083.448598207</v>
+        <v>5213083.4488329813</v>
       </c>
       <c r="I29" s="14">
-        <v>5570385.8037519203</v>
+        <v>5570385.8039889373</v>
       </c>
       <c r="J29" s="14">
-        <v>5213083.448598207</v>
+        <v>5213083.4488329813</v>
       </c>
       <c r="K29" s="14">
-        <v>-357302.35515371338</v>
+        <v>-357302.355155956</v>
       </c>
       <c r="L29" s="13">
         <v>0</v>
@@ -3832,28 +3915,28 @@
         <v>19.25</v>
       </c>
       <c r="D30" s="13">
-        <v>28.642033273139454</v>
+        <v>28.642033273096018</v>
       </c>
       <c r="E30" s="13">
-        <v>348430.6415648465</v>
+        <v>348430.64156162366</v>
       </c>
       <c r="F30" s="14">
-        <v>508657.8691271703</v>
+        <v>508657.86912246537</v>
       </c>
       <c r="G30" s="14">
-        <v>7809895.3286233107</v>
+        <v>7809895.3289474202</v>
       </c>
       <c r="H30" s="14">
-        <v>5349778.3187272092</v>
+        <v>5349778.3189492244</v>
       </c>
       <c r="I30" s="14">
-        <v>5918816.4453167673</v>
+        <v>5918816.445550561</v>
       </c>
       <c r="J30" s="14">
-        <v>5349778.3187272092</v>
+        <v>5349778.3189492244</v>
       </c>
       <c r="K30" s="14">
-        <v>-569038.12658955809</v>
+        <v>-569038.12660133652</v>
       </c>
       <c r="L30" s="13">
         <v>0</v>
@@ -3870,31 +3953,31 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="12">
-        <v>18.770000457763672</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="13">
-        <v>28.372122112939287</v>
+        <v>28.372122112915513</v>
       </c>
       <c r="E31" s="13">
-        <v>364192.9241091304</v>
+        <v>364192.92393768637</v>
       </c>
       <c r="F31" s="14">
-        <v>549310.60470490914</v>
+        <v>549310.60444632091</v>
       </c>
       <c r="G31" s="14">
-        <v>8359205.9333282197</v>
+        <v>8359205.933393741</v>
       </c>
       <c r="H31" s="14">
-        <v>5542153.4301611297</v>
+        <v>5542153.4302045703</v>
       </c>
       <c r="I31" s="14">
-        <v>6283009.3694258975</v>
+        <v>6283009.3694882477</v>
       </c>
       <c r="J31" s="14">
-        <v>5542153.4301611297</v>
+        <v>5542153.4302045703</v>
       </c>
       <c r="K31" s="14">
-        <v>-740855.9392647678</v>
+        <v>-740855.93928367738</v>
       </c>
       <c r="L31" s="13">
         <v>0</v>
@@ -3911,31 +3994,31 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="12">
-        <v>17.930000305175781</v>
+        <v>17.93000031</v>
       </c>
       <c r="D32" s="13">
-        <v>28.031817642334733</v>
+        <v>28.031817642289916</v>
       </c>
       <c r="E32" s="13">
-        <v>403084.51837763441</v>
+        <v>403084.5179890641</v>
       </c>
       <c r="F32" s="14">
-        <v>619177.42581534223</v>
+        <v>619177.42521846003</v>
       </c>
       <c r="G32" s="14">
-        <v>8978383.3591435626</v>
+        <v>8978383.3586122002</v>
       </c>
       <c r="H32" s="14">
-        <v>5844927.7723013461</v>
+        <v>5844927.7719554286</v>
       </c>
       <c r="I32" s="14">
-        <v>6686093.8878035322</v>
+        <v>6686093.8874773122</v>
       </c>
       <c r="J32" s="14">
-        <v>5844927.7723013461</v>
+        <v>5844927.7719554286</v>
       </c>
       <c r="K32" s="14">
-        <v>-841166.11550218612</v>
+        <v>-841166.11552188359</v>
       </c>
       <c r="L32" s="13">
         <v>0</v>
@@ -3952,31 +4035,31 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="12">
-        <v>17.709999084472656</v>
+        <v>17.709999079999999</v>
       </c>
       <c r="D33" s="13">
-        <v>27.695688453026897</v>
+        <v>27.695688452952449</v>
       </c>
       <c r="E33" s="13">
-        <v>393870.26905276586</v>
+        <v>393870.26939972723</v>
       </c>
       <c r="F33" s="14">
-        <v>610651.59798452829</v>
+        <v>610651.59852245299</v>
       </c>
       <c r="G33" s="14">
-        <v>9589034.9571280908</v>
+        <v>9589034.9571346529</v>
       </c>
       <c r="H33" s="14">
-        <v>6184927.364451291</v>
+        <v>6184927.3644555239</v>
       </c>
       <c r="I33" s="14">
-        <v>7079964.1568562984</v>
+        <v>7079964.156877039</v>
       </c>
       <c r="J33" s="14">
-        <v>6184927.364451291</v>
+        <v>6184927.3644555239</v>
       </c>
       <c r="K33" s="14">
-        <v>-895036.79240500741</v>
+        <v>-895036.7924215151</v>
       </c>
       <c r="L33" s="13">
         <v>0</v>
@@ -3993,31 +4076,31 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="12">
-        <v>15.380000114440918</v>
+        <v>15.380000109999999</v>
       </c>
       <c r="D34" s="13">
-        <v>27.336624376243282</v>
+        <v>27.336624376181831</v>
       </c>
       <c r="E34" s="13">
-        <v>564695.41176478763</v>
+        <v>564695.41217846051</v>
       </c>
       <c r="F34" s="14">
-        <v>1006587.2055691759</v>
+        <v>1006587.2063065607</v>
       </c>
       <c r="G34" s="14">
-        <v>10595622.162697267</v>
+        <v>10595622.163441213</v>
       </c>
       <c r="H34" s="14">
-        <v>5944143.9221206671</v>
+        <v>5944143.9225380206</v>
       </c>
       <c r="I34" s="14">
-        <v>7644659.568621086</v>
+        <v>7644659.5690554995</v>
       </c>
       <c r="J34" s="14">
-        <v>5944143.9221206671</v>
+        <v>5944143.9225380206</v>
       </c>
       <c r="K34" s="14">
-        <v>-1700515.6465004189</v>
+        <v>-1700515.6465174789</v>
       </c>
       <c r="L34" s="13">
         <v>0</v>
@@ -4034,31 +4117,31 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="12">
-        <v>17.479999542236328</v>
+        <v>17.479999540000001</v>
       </c>
       <c r="D35" s="13">
-        <v>27.106454818762419</v>
+        <v>27.106454818663767</v>
       </c>
       <c r="E35" s="13">
-        <v>366041.1327042802</v>
+        <v>366041.13286684826</v>
       </c>
       <c r="F35" s="14">
-        <v>573732.17263077828</v>
+        <v>573732.17288558721</v>
       </c>
       <c r="G35" s="14">
-        <v>11169354.335328044</v>
+        <v>11169354.3363268</v>
       </c>
       <c r="H35" s="14">
-        <v>7126048.1937624086</v>
+        <v>7126048.1943996148</v>
       </c>
       <c r="I35" s="14">
-        <v>8010700.7013253663</v>
+        <v>8010700.7019223478</v>
       </c>
       <c r="J35" s="14">
-        <v>7126048.1937624086</v>
+        <v>7126048.1943996148</v>
       </c>
       <c r="K35" s="14">
-        <v>-884652.5075629577</v>
+        <v>-884652.50752273295</v>
       </c>
       <c r="L35" s="13">
         <v>0</v>
@@ -4075,31 +4158,31 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="12">
-        <v>17.700000762939453</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="13">
-        <v>26.839674750359887</v>
+        <v>26.839674750233506</v>
       </c>
       <c r="E36" s="13">
-        <v>329957.88035550242</v>
+        <v>329957.88055861578</v>
       </c>
       <c r="F36" s="14">
-        <v>510770.69075749943</v>
+        <v>510770.69107191637</v>
       </c>
       <c r="G36" s="14">
-        <v>11680125.026085544</v>
+        <v>11680125.027398717</v>
       </c>
       <c r="H36" s="14">
-        <v>7545361.0898832837</v>
+        <v>7545361.0907315928</v>
       </c>
       <c r="I36" s="14">
-        <v>8340658.5816808688</v>
+        <v>8340658.5824809633</v>
       </c>
       <c r="J36" s="14">
-        <v>7545361.0898832837</v>
+        <v>7545361.0907315928</v>
       </c>
       <c r="K36" s="14">
-        <v>-795297.49179758504</v>
+        <v>-795297.49174937047</v>
       </c>
       <c r="L36" s="13">
         <v>0</v>
@@ -4116,31 +4199,31 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="12">
-        <v>18.110000610351563</v>
+        <v>18.11000061</v>
       </c>
       <c r="D37" s="13">
-        <v>26.594314356937268</v>
+        <v>26.594314356804418</v>
       </c>
       <c r="E37" s="13">
-        <v>568670.28002897499</v>
+        <v>568670.28005829395</v>
       </c>
       <c r="F37" s="14">
-        <v>856431.17721840367</v>
+        <v>856431.17726255872</v>
       </c>
       <c r="G37" s="14">
-        <v>12536556.203303948</v>
+        <v>12536556.204661276</v>
       </c>
       <c r="H37" s="14">
-        <v>8324273.0021653427</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="I37" s="14">
-        <v>8909328.8617098443</v>
+        <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324273.0021653427</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585055.85954450164</v>
+        <v>-585055.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4148,6 +4231,50 @@
       <c r="M37" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:13" ht="12.75">
+      <c r="A38" s="11">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="12">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="13">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="13">
+        <v>513176.5261695009</v>
+      </c>
+      <c r="F38" s="14">
+        <v>789502.37691185286</v>
+      </c>
+      <c r="G38" s="14">
+        <v>13326058.581573129</v>
+      </c>
+      <c r="H38" s="14">
+        <v>8661937.7603045385</v>
+      </c>
+      <c r="I38" s="14">
+        <v>9422505.3887087591</v>
+      </c>
+      <c r="J38" s="14">
+        <v>8661937.7603045385</v>
+      </c>
+      <c r="K38" s="14">
+        <v>-760567.62840422057</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -264,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,7 +323,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -585,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,7 +596,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -702,6 +704,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9422505.3887087591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9971187.101954896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +749,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -852,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,7 +869,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -969,6 +977,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8661937.7603045385</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9024054.6724717319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1022,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1119,6 +1130,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,7 +1142,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1236,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-760567.62840422057</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-947132.4294831641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1257,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439446528"/>
-        <c:axId val="439476992"/>
+        <c:axId val="507359232"/>
+        <c:axId val="507361536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439446528"/>
+        <c:axId val="507359232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,14 +1321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439476992"/>
+        <c:crossAx val="507361536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439476992"/>
+        <c:axId val="507361536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439446528"/>
+        <c:crossAx val="507359232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,7 +1570,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1661,6 +1678,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>513176.5261695009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>548681.71324613784</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,8 +1695,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="460961280"/>
-        <c:axId val="460958336"/>
+        <c:axId val="638972672"/>
+        <c:axId val="611363072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1701,7 +1721,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1809,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1818,7 +1841,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1926,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1942,11 +1968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460949760"/>
-        <c:axId val="460955648"/>
+        <c:axId val="569085312"/>
+        <c:axId val="570540032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460949760"/>
+        <c:axId val="569085312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,14 +2015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460955648"/>
+        <c:crossAx val="570540032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460955648"/>
+        <c:axId val="570540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,12 +2073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460949760"/>
+        <c:crossAx val="569085312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460958336"/>
+        <c:axId val="611363072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,12 +2115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460961280"/>
+        <c:crossAx val="638972672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="460961280"/>
+        <c:axId val="638972672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460958336"/>
+        <c:crossAx val="611363072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4273,8 +4299,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="28"/>
+    <row r="39" spans="1:13" ht="12.75">
+      <c r="A39" s="11">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="12">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="13">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="13">
+        <v>548681.71324613784</v>
+      </c>
+      <c r="F39" s="14">
+        <v>862707.12669900339</v>
+      </c>
+      <c r="G39" s="14">
+        <v>14188765.708272133</v>
+      </c>
+      <c r="H39" s="14">
+        <v>9024054.6724717319</v>
+      </c>
+      <c r="I39" s="14">
+        <v>9971187.101954896</v>
+      </c>
+      <c r="J39" s="14">
+        <v>9024054.6724717319</v>
+      </c>
+      <c r="K39" s="14">
+        <v>-947132.4294831641</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -587,6 +587,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +599,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -707,6 +710,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9971187.101954896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10507741.892435335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +755,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -860,6 +866,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +878,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -973,13 +982,16 @@
                   <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324273.0030666078</c:v>
+                  <c:v>8324274.0030666078</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8661937.7603045385</c:v>
+                  <c:v>8661938.7603045385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9024054.6724717319</c:v>
+                  <c:v>9024055.6724717319</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9518043.713851545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,7 +1034,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1133,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1157,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1246,13 +1261,16 @@
                   <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585055.8594726501</c:v>
+                  <c:v>-585054.8594726501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-760567.62840422057</c:v>
+                  <c:v>-760566.62840422057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-947132.4294831641</c:v>
+                  <c:v>-947131.4294831641</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-989698.17858378962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,11 +1292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507359232"/>
-        <c:axId val="507361536"/>
+        <c:axId val="427734912"/>
+        <c:axId val="427736448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507359232"/>
+        <c:axId val="427734912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,14 +1339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507361536"/>
+        <c:crossAx val="427736448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507361536"/>
+        <c:axId val="427736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1397,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507359232"/>
+        <c:crossAx val="427734912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1535,7 +1553,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1570,7 +1587,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1681,6 +1698,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>548681.71324613784</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>536554.7904804392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,8 +1715,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="638972672"/>
-        <c:axId val="611363072"/>
+        <c:axId val="428087552"/>
+        <c:axId val="428086016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1721,7 +1741,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1832,6 +1852,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,7 +1864,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1952,6 +1975,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,11 +1994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569085312"/>
-        <c:axId val="570540032"/>
+        <c:axId val="427918848"/>
+        <c:axId val="427920384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569085312"/>
+        <c:axId val="427918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2015,14 +2041,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570540032"/>
+        <c:crossAx val="427920384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="570540032"/>
+        <c:axId val="427920384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,12 +2099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569085312"/>
+        <c:crossAx val="427918848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="611363072"/>
+        <c:axId val="428086016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,12 +2141,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638972672"/>
+        <c:crossAx val="428087552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="638972672"/>
+        <c:axId val="428087552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="611363072"/>
+        <c:crossAx val="428086016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2538,10 +2564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4246,10 +4272,10 @@
         <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324273.0030666078</v>
+        <v>8324274.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585055.8594726501</v>
+        <v>-585054.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4287,10 +4313,10 @@
         <v>9422505.3887087591</v>
       </c>
       <c r="J38" s="14">
-        <v>8661937.7603045385</v>
+        <v>8661938.7603045385</v>
       </c>
       <c r="K38" s="14">
-        <v>-760567.62840422057</v>
+        <v>-760566.62840422057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4328,16 +4354,57 @@
         <v>9971187.101954896</v>
       </c>
       <c r="J39" s="14">
-        <v>9024054.6724717319</v>
+        <v>9024055.6724717319</v>
       </c>
       <c r="K39" s="14">
-        <v>-947132.4294831641</v>
+        <v>-947131.4294831641</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
       </c>
       <c r="M39" s="8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="12.75">
+      <c r="A40" s="11">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="12">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="13">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="13">
+        <v>536554.7904804392</v>
+      </c>
+      <c r="F40" s="14">
+        <v>847637.87794335093</v>
+      </c>
+      <c r="G40" s="14">
+        <v>15036403.586215485</v>
+      </c>
+      <c r="H40" s="14">
+        <v>9518043.713851545</v>
+      </c>
+      <c r="I40" s="14">
+        <v>10507741.892435335</v>
+      </c>
+      <c r="J40" s="14">
+        <v>9518043.713851545</v>
+      </c>
+      <c r="K40" s="14">
+        <v>-989698.17858378962</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -590,6 +590,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,7 +602,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -712,7 +715,10 @@
                   <c:v>9971187.101954896</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>10507741.892435335</c:v>
+                  <c:v>10239464.497195115</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10344624.03488989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +761,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -869,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +887,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -982,16 +991,19 @@
                   <c:v>7545361.0907315928</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8324274.0030666078</c:v>
+                  <c:v>8324273.0030666078</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8661938.7603045385</c:v>
+                  <c:v>8661937.7603045385</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9024055.6724717319</c:v>
+                  <c:v>9024054.6724717319</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9518043.713851545</c:v>
+                  <c:v>9249766.3186113238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9018836.3815481979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,7 +1046,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1148,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1157,7 +1172,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1261,16 +1276,19 @@
                   <c:v>-795297.49174937047</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-585054.8594726501</c:v>
+                  <c:v>-585055.8594726501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-760566.62840422057</c:v>
+                  <c:v>-760567.62840422057</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-947131.4294831641</c:v>
+                  <c:v>-947132.4294831641</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-989698.17858378962</c:v>
+                  <c:v>-989698.17858379148</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1325787.6533416919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,11 +1310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427734912"/>
-        <c:axId val="427736448"/>
+        <c:axId val="327693056"/>
+        <c:axId val="327700864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427734912"/>
+        <c:axId val="327693056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,14 +1357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427736448"/>
+        <c:crossAx val="327700864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427736448"/>
+        <c:axId val="327700864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427734912"/>
+        <c:crossAx val="327693056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1553,6 +1571,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1587,7 +1606,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1700,7 +1719,10 @@
                   <c:v>548681.71324613784</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>536554.7904804392</c:v>
+                  <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,8 +1737,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="428087552"/>
-        <c:axId val="428086016"/>
+        <c:axId val="338658048"/>
+        <c:axId val="338648064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1741,7 +1763,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1855,6 +1877,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1889,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1978,6 +2003,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,11 +2022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="427918848"/>
-        <c:axId val="427920384"/>
+        <c:axId val="338644352"/>
+        <c:axId val="338646144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="427918848"/>
+        <c:axId val="338644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,14 +2069,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427920384"/>
+        <c:crossAx val="338646144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="427920384"/>
+        <c:axId val="338646144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,12 +2127,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427918848"/>
+        <c:crossAx val="338644352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428086016"/>
+        <c:axId val="338648064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,12 +2169,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428087552"/>
+        <c:crossAx val="338658048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="428087552"/>
+        <c:axId val="338658048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428086016"/>
+        <c:crossAx val="338648064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,10 +2592,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4272,10 +4300,10 @@
         <v>8909328.8625392579</v>
       </c>
       <c r="J37" s="14">
-        <v>8324274.0030666078</v>
+        <v>8324273.0030666078</v>
       </c>
       <c r="K37" s="14">
-        <v>-585054.8594726501</v>
+        <v>-585055.8594726501</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -4313,10 +4341,10 @@
         <v>9422505.3887087591</v>
       </c>
       <c r="J38" s="14">
-        <v>8661938.7603045385</v>
+        <v>8661937.7603045385</v>
       </c>
       <c r="K38" s="14">
-        <v>-760566.62840422057</v>
+        <v>-760567.62840422057</v>
       </c>
       <c r="L38" s="13">
         <v>0</v>
@@ -4354,10 +4382,10 @@
         <v>9971187.101954896</v>
       </c>
       <c r="J39" s="14">
-        <v>9024055.6724717319</v>
+        <v>9024054.6724717319</v>
       </c>
       <c r="K39" s="14">
-        <v>-947131.4294831641</v>
+        <v>-947132.4294831641</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
@@ -4380,30 +4408,71 @@
         <v>25.951256745485065</v>
       </c>
       <c r="E40" s="13">
-        <v>536554.7904804392</v>
+        <v>268277.3952402196</v>
       </c>
       <c r="F40" s="14">
-        <v>847637.87794335093</v>
+        <v>423818.93897167547</v>
       </c>
       <c r="G40" s="14">
-        <v>15036403.586215485</v>
+        <v>14612584.647243809</v>
       </c>
       <c r="H40" s="14">
-        <v>9518043.713851545</v>
+        <v>9249766.3186113238</v>
       </c>
       <c r="I40" s="14">
-        <v>10507741.892435335</v>
+        <v>10239464.497195115</v>
       </c>
       <c r="J40" s="14">
-        <v>9518043.713851545</v>
+        <v>9249766.3186113238</v>
       </c>
       <c r="K40" s="14">
-        <v>-989698.17858378962</v>
+        <v>-989698.17858379148</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
       </c>
       <c r="M40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12.75">
+      <c r="A41" s="11">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="12">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="13">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="13">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="14">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="14">
+        <v>14784977.327946559</v>
+      </c>
+      <c r="H41" s="14">
+        <v>9018836.3815481979</v>
+      </c>
+      <c r="I41" s="14">
+        <v>10344624.03488989</v>
+      </c>
+      <c r="J41" s="14">
+        <v>9018836.3815481979</v>
+      </c>
+      <c r="K41" s="14">
+        <v>-1325787.6533416919</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
         <v>0</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -593,6 +593,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +605,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -719,6 +722,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10344624.03488989</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10345158.618239028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +767,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -878,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +896,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1004,6 +1013,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9018836.3815481979</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11340612.482935237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1058,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1163,6 +1175,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,7 +1187,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1289,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1325787.6533416919</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>995453.86469620839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,11 +1328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327693056"/>
-        <c:axId val="327700864"/>
+        <c:axId val="394482048"/>
+        <c:axId val="394483584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="327693056"/>
+        <c:axId val="394482048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,14 +1375,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327700864"/>
+        <c:crossAx val="394483584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327700864"/>
+        <c:axId val="394483584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1433,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327693056"/>
+        <c:crossAx val="394482048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1606,7 +1624,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1723,6 +1741,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1737,8 +1758,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="338658048"/>
-        <c:axId val="338648064"/>
+        <c:axId val="413801472"/>
+        <c:axId val="413798400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1763,7 +1784,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1880,6 +1901,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,7 +1913,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2006,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,11 +2049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338644352"/>
-        <c:axId val="338646144"/>
+        <c:axId val="394588544"/>
+        <c:axId val="394590464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="338644352"/>
+        <c:axId val="394588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,14 +2096,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338646144"/>
+        <c:crossAx val="394590464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="338646144"/>
+        <c:axId val="394590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,12 +2154,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338644352"/>
+        <c:crossAx val="394588544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338648064"/>
+        <c:axId val="413798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2169,12 +2196,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338658048"/>
+        <c:crossAx val="413801472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="338658048"/>
+        <c:axId val="413801472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338648064"/>
+        <c:crossAx val="413798400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2592,7 +2619,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4476,6 +4503,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:13" ht="12.75">
+      <c r="A42" s="11">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="12">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="12">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="13">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="13">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="14">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="14">
+        <v>14785674.307523496</v>
+      </c>
+      <c r="H42" s="14">
+        <v>11340612.482935237</v>
+      </c>
+      <c r="I42" s="14">
+        <v>10345158.618239028</v>
+      </c>
+      <c r="J42" s="14">
+        <v>11340612.482935237</v>
+      </c>
+      <c r="K42" s="14">
+        <v>995453.86469620839</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -724,7 +728,7 @@
                   <c:v>10344624.03488989</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10345158.618239028</c:v>
+                  <c:v>10345693.201588165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1019,7 @@
                   <c:v>9018836.3815481979</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11340612.482935237</c:v>
+                  <c:v>11341147.066284377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,7 +1310,7 @@
                   <c:v>-1325787.6533416919</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>995453.86469620839</c:v>
+                  <c:v>995453.86469621211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1328,11 +1332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394482048"/>
-        <c:axId val="394483584"/>
+        <c:axId val="160007680"/>
+        <c:axId val="160009600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394482048"/>
+        <c:axId val="160007680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,14 +1379,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394483584"/>
+        <c:crossAx val="160009600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394483584"/>
+        <c:axId val="160009600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1437,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394482048"/>
+        <c:crossAx val="160007680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1743,7 +1747,7 @@
                   <c:v>105159.53769477447</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>1069.1666982757504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,8 +1762,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="413801472"/>
-        <c:axId val="413798400"/>
+        <c:axId val="470825600"/>
+        <c:axId val="470823296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2049,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394588544"/>
-        <c:axId val="394590464"/>
+        <c:axId val="470667264"/>
+        <c:axId val="470668800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="394588544"/>
+        <c:axId val="470667264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2096,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394590464"/>
+        <c:crossAx val="470668800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="394590464"/>
+        <c:axId val="470668800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394588544"/>
+        <c:crossAx val="470667264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413798400"/>
+        <c:axId val="470823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413801472"/>
+        <c:crossAx val="470825600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="413801472"/>
+        <c:axId val="470825600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2210,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413798400"/>
+        <c:crossAx val="470823296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2626,7 @@
   <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2759,28 +2763,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4517,31 +4521,31 @@
         <v>25.607882301175056</v>
       </c>
       <c r="E42" s="13">
-        <v>534.58334913787519</v>
+        <v>1069.1666982757504</v>
       </c>
       <c r="F42" s="14">
-        <v>696.97957693832984</v>
+        <v>1393.9591538766597</v>
       </c>
       <c r="G42" s="14">
-        <v>14785674.307523496</v>
+        <v>14786371.287100436</v>
       </c>
       <c r="H42" s="14">
-        <v>11340612.482935237</v>
+        <v>11341147.066284377</v>
       </c>
       <c r="I42" s="14">
-        <v>10345158.618239028</v>
+        <v>10345693.201588165</v>
       </c>
       <c r="J42" s="14">
-        <v>11340612.482935237</v>
+        <v>11341147.066284377</v>
       </c>
       <c r="K42" s="14">
-        <v>995453.86469620839</v>
+        <v>995453.86469621211</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
       </c>
       <c r="M42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -480,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -600,6 +600,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -609,7 +612,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -729,6 +732,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10345693.201588165</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10349143.041438431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -771,7 +777,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -891,6 +897,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -900,7 +909,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1020,6 +1029,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>11341147.066284377</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11492460.477991821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1062,7 +1074,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1182,6 +1194,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1206,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1311,6 +1326,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>995453.86469621211</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1143317.4365533907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160007680"/>
-        <c:axId val="160009600"/>
+        <c:axId val="448946944"/>
+        <c:axId val="448948480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160007680"/>
+        <c:axId val="448946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,14 +1397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160009600"/>
+        <c:crossAx val="448948480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160009600"/>
+        <c:axId val="448948480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1455,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160007680"/>
+        <c:crossAx val="448946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1646,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1748,6 +1766,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1069.1666982757504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3449.8398502661958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,8 +1783,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="470825600"/>
-        <c:axId val="470823296"/>
+        <c:axId val="449081344"/>
+        <c:axId val="449079168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1788,7 +1809,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1908,6 +1929,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,7 +1941,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2037,6 +2061,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470667264"/>
-        <c:axId val="470668800"/>
+        <c:axId val="449050880"/>
+        <c:axId val="449077248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470667264"/>
+        <c:axId val="449050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470668800"/>
+        <c:crossAx val="449077248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470668800"/>
+        <c:axId val="449077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2185,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470667264"/>
+        <c:crossAx val="449050880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470823296"/>
+        <c:axId val="449079168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470825600"/>
+        <c:crossAx val="449081344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="470825600"/>
+        <c:axId val="449081344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="470823296"/>
+        <c:crossAx val="449079168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,10 +2650,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4548,6 +4575,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:13" ht="12.75">
+      <c r="A43" s="11">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="12">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="13">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="13">
+        <v>3449.8398502661958</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4439.9482700211292</v>
+      </c>
+      <c r="G43" s="14">
+        <v>14790811.235370457</v>
+      </c>
+      <c r="H43" s="14">
+        <v>11492460.477991821</v>
+      </c>
+      <c r="I43" s="14">
+        <v>10349143.041438431</v>
+      </c>
+      <c r="J43" s="14">
+        <v>11492460.477991821</v>
+      </c>
+      <c r="K43" s="14">
+        <v>1143317.4365533907</v>
+      </c>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -603,6 +599,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,7 +611,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -735,6 +734,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>10349143.041438431</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10355168.274743756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,7 +779,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -900,6 +902,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,7 +914,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1032,6 +1037,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11492460.477991821</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11557649.076136371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,7 +1082,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1197,6 +1205,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,7 +1217,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1329,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1143317.4365533907</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1202480.8013926148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1350,11 +1364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448946944"/>
-        <c:axId val="448948480"/>
+        <c:axId val="481403648"/>
+        <c:axId val="481405568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448946944"/>
+        <c:axId val="481403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,14 +1411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448948480"/>
+        <c:crossAx val="481405568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448948480"/>
+        <c:axId val="481405568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448946944"/>
+        <c:crossAx val="481403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1646,7 +1660,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1769,6 +1783,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3449.8398502661958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6025.2333053250577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449081344"/>
-        <c:axId val="449079168"/>
+        <c:axId val="481803648"/>
+        <c:axId val="481802112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1809,7 +1826,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1932,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,7 +1961,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2064,6 +2084,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,11 +2103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="449050880"/>
-        <c:axId val="449077248"/>
+        <c:axId val="481792384"/>
+        <c:axId val="481800192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="449050880"/>
+        <c:axId val="481792384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,14 +2150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449077248"/>
+        <c:crossAx val="481800192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="449077248"/>
+        <c:axId val="481800192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449050880"/>
+        <c:crossAx val="481792384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449079168"/>
+        <c:axId val="481802112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449081344"/>
+        <c:crossAx val="481803648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="449081344"/>
+        <c:axId val="481803648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449079168"/>
+        <c:crossAx val="481802112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2650,7 +2673,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2790,28 +2813,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4613,6 +4636,47 @@
         <v>0</v>
       </c>
       <c r="M43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="12.75">
+      <c r="A44" s="11">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="12">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="13">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="13">
+        <v>6025.2333053250577</v>
+      </c>
+      <c r="F44" s="14">
+        <v>7714.7671773814682</v>
+      </c>
+      <c r="G44" s="14">
+        <v>14798526.002547838</v>
+      </c>
+      <c r="H44" s="14">
+        <v>11557649.076136371</v>
+      </c>
+      <c r="I44" s="14">
+        <v>10355168.274743756</v>
+      </c>
+      <c r="J44" s="14">
+        <v>11557649.076136371</v>
+      </c>
+      <c r="K44" s="14">
+        <v>1202480.8013926148</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -264,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,6 +327,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,7 +481,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -602,6 +607,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,7 +619,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -727,16 +735,19 @@
                   <c:v>10239464.497195115</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>10344624.03488989</c:v>
+                  <c:v>10344624.034901198</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10345693.201588165</c:v>
+                  <c:v>10345693.201601051</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10349143.041438431</c:v>
+                  <c:v>10349143.041451316</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10355168.274743756</c:v>
+                  <c:v>10355168.274756642</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10359966.705196057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -779,7 +790,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -905,6 +916,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +928,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1030,16 +1044,19 @@
                   <c:v>9249766.3186113238</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9018836.3815481979</c:v>
+                  <c:v>9018836.3815595061</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11341147.066284377</c:v>
+                  <c:v>11341147.066300172</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11492460.477991821</c:v>
+                  <c:v>11492460.478007823</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11557649.076136371</c:v>
+                  <c:v>11557649.076152453</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11680835.07247209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1099,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1208,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,7 +1237,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1336,13 +1356,16 @@
                   <c:v>-1325787.6533416919</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>995453.86469621211</c:v>
+                  <c:v>995453.86469912156</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1143317.4365533907</c:v>
+                  <c:v>1143317.4365565069</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1202480.8013926148</c:v>
+                  <c:v>1202480.8013958111</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1320868.3672760334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,11 +1387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481403648"/>
-        <c:axId val="481405568"/>
+        <c:axId val="366421888"/>
+        <c:axId val="366432256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481403648"/>
+        <c:axId val="366421888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,14 +1434,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481405568"/>
+        <c:crossAx val="366432256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481405568"/>
+        <c:axId val="366432256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1492,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481403648"/>
+        <c:crossAx val="366421888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +1683,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1776,16 +1799,19 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1069.1666982757504</c:v>
+                  <c:v>1069.1666998522771</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3449.8398502661958</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>6025.2333053250577</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4798.4304394137898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,8 +1826,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481803648"/>
-        <c:axId val="481802112"/>
+        <c:axId val="493318528"/>
+        <c:axId val="493117440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1826,7 +1852,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1952,6 +1978,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,7 +1990,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2087,6 +2116,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,11 +2135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481792384"/>
-        <c:axId val="481800192"/>
+        <c:axId val="492953984"/>
+        <c:axId val="493031424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481792384"/>
+        <c:axId val="492953984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,14 +2182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481800192"/>
+        <c:crossAx val="493031424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481800192"/>
+        <c:axId val="493031424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2240,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481792384"/>
+        <c:crossAx val="492953984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481802112"/>
+        <c:axId val="493117440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,12 +2282,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481803648"/>
+        <c:crossAx val="493318528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481803648"/>
+        <c:axId val="493318528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481802112"/>
+        <c:crossAx val="493117440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2705,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2813,28 +2845,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -2854,6 +2886,16 @@
       </c>
       <c r="AD3" s="10">
         <f>-AC3</f>
+        <v>-460092.79671082116</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>460092.79671082116</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>-AF3</f>
         <v>-460092.79671082116</v>
       </c>
     </row>
@@ -2939,9 +2981,16 @@
         <f>-AC4</f>
         <v>-3518640.0102128703</v>
       </c>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
+      <c r="AE4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>3518640.0102128703</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>-AF4</f>
+        <v>-3518640.0102128703</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="11">
@@ -3016,15 +3065,22 @@
         <v>45289</v>
       </c>
       <c r="AC5" s="8">
-        <v>3246072.3111430067</v>
+        <v>3101231.3499533474</v>
       </c>
       <c r="AD5" s="8">
         <f>-AC5</f>
-        <v>-3246072.3111430067</v>
-      </c>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
+        <v>-3101231.3499533474</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="AG5" s="8">
+        <f>-AF5</f>
+        <v>-3101231.3499533474</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="11">
@@ -3088,7 +3144,7 @@
         <v>-0.12641826605183187</v>
       </c>
       <c r="W6" s="18">
-        <v>-7.9485707976947206E-2</v>
+        <v>-8.0432995871083768E-2</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -3100,9 +3156,18 @@
       </c>
       <c r="AC6" s="8"/>
       <c r="AD6" s="19">
-        <v>6328433.3766216012</v>
-      </c>
-      <c r="AE6" s="16"/>
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="AG6" s="10">
+        <f>-AF6</f>
+        <v>-3101231.3499533474</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="11">
@@ -3144,13 +3209,42 @@
       <c r="M7" s="8">
         <v>1</v>
       </c>
+      <c r="P7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>3101231.3499533474</v>
+      </c>
+      <c r="R7" s="7">
+        <v>7079964.156877039</v>
+      </c>
+      <c r="S7" s="7">
+        <v>6184927.3644555239</v>
+      </c>
+      <c r="T7" s="7">
+        <v>-895036.7924215151</v>
+      </c>
+      <c r="U7" s="7">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18">
+        <v>-0.12641826605183187</v>
+      </c>
+      <c r="W7" s="18">
+        <v>-0.21743933173383112</v>
+      </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AD7" s="9">
-        <v>-7.9485707976947206E-2</v>
-      </c>
-      <c r="AG7" s="9"/>
+        <v>-8.0432995871083768E-2</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>6184927.3644555239</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="11">
@@ -3191,6 +3285,9 @@
       </c>
       <c r="M8" s="8">
         <v>1</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>-0.21743933173383112</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -4527,25 +4624,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="13">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="13">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="14">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="14">
-        <v>14784977.327946559</v>
+        <v>14784977.327965098</v>
       </c>
       <c r="H41" s="14">
-        <v>9018836.3815481979</v>
+        <v>9018836.3815595061</v>
       </c>
       <c r="I41" s="14">
-        <v>10344624.03488989</v>
+        <v>10344624.034901198</v>
       </c>
       <c r="J41" s="14">
-        <v>9018836.3815481979</v>
+        <v>9018836.3815595061</v>
       </c>
       <c r="K41" s="14">
         <v>-1325787.6533416919</v>
@@ -4568,28 +4665,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="13">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="13">
-        <v>1069.1666982757504</v>
+        <v>1069.1666998522771</v>
       </c>
       <c r="F42" s="14">
-        <v>1393.9591538766597</v>
+        <v>1393.9591559321052</v>
       </c>
       <c r="G42" s="14">
-        <v>14786371.287100436</v>
+        <v>14786371.28712103</v>
       </c>
       <c r="H42" s="14">
-        <v>11341147.066284377</v>
+        <v>11341147.066300172</v>
       </c>
       <c r="I42" s="14">
-        <v>10345693.201588165</v>
+        <v>10345693.201601051</v>
       </c>
       <c r="J42" s="14">
-        <v>11341147.066284377</v>
+        <v>11341147.066300172</v>
       </c>
       <c r="K42" s="14">
-        <v>995453.86469621211</v>
+        <v>995453.86469912156</v>
       </c>
       <c r="L42" s="13">
         <v>0</v>
@@ -4618,19 +4715,19 @@
         <v>4439.9482700211292</v>
       </c>
       <c r="G43" s="14">
-        <v>14790811.235370457</v>
+        <v>14790811.235391051</v>
       </c>
       <c r="H43" s="14">
-        <v>11492460.477991821</v>
+        <v>11492460.478007823</v>
       </c>
       <c r="I43" s="14">
-        <v>10349143.041438431</v>
+        <v>10349143.041451316</v>
       </c>
       <c r="J43" s="14">
-        <v>11492460.477991821</v>
+        <v>11492460.478007823</v>
       </c>
       <c r="K43" s="14">
-        <v>1143317.4365533907</v>
+        <v>1143317.4365565069</v>
       </c>
       <c r="L43" s="13">
         <v>0</v>
@@ -4659,19 +4756,19 @@
         <v>7714.7671773814682</v>
       </c>
       <c r="G44" s="14">
-        <v>14798526.002547838</v>
+        <v>14798526.002568431</v>
       </c>
       <c r="H44" s="14">
-        <v>11557649.076136371</v>
+        <v>11557649.076152453</v>
       </c>
       <c r="I44" s="14">
-        <v>10355168.274743756</v>
+        <v>10355168.274756642</v>
       </c>
       <c r="J44" s="14">
-        <v>11557649.076136371</v>
+        <v>11557649.076152453</v>
       </c>
       <c r="K44" s="14">
-        <v>1202480.8013926148</v>
+        <v>1202480.8013958111</v>
       </c>
       <c r="L44" s="13">
         <v>0</v>
@@ -4679,6 +4776,50 @@
       <c r="M44" s="8">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75">
+      <c r="A45" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="12">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="13">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="13">
+        <v>4798.4304394137898</v>
+      </c>
+      <c r="F45" s="14">
+        <v>6081.6610812570025</v>
+      </c>
+      <c r="G45" s="14">
+        <v>14804607.663649688</v>
+      </c>
+      <c r="H45" s="14">
+        <v>11680835.07247209</v>
+      </c>
+      <c r="I45" s="14">
+        <v>10359966.705196057</v>
+      </c>
+      <c r="J45" s="14">
+        <v>11680835.07247209</v>
+      </c>
+      <c r="K45" s="14">
+        <v>1320868.3672760334</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -268,7 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,7 +323,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1387,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366421888"/>
-        <c:axId val="366432256"/>
+        <c:axId val="428222336"/>
+        <c:axId val="428232704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366421888"/>
+        <c:axId val="428222336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1434,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366432256"/>
+        <c:crossAx val="428232704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="366432256"/>
+        <c:axId val="428232704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366421888"/>
+        <c:crossAx val="428222336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1826,8 +1821,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493318528"/>
-        <c:axId val="493117440"/>
+        <c:axId val="445705600"/>
+        <c:axId val="445704064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2135,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492953984"/>
-        <c:axId val="493031424"/>
+        <c:axId val="445687680"/>
+        <c:axId val="445702144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492953984"/>
+        <c:axId val="445687680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,14 +2177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493031424"/>
+        <c:crossAx val="445702144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493031424"/>
+        <c:axId val="445702144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,12 +2235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492953984"/>
+        <c:crossAx val="445687680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493117440"/>
+        <c:axId val="445704064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,12 +2277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493318528"/>
+        <c:crossAx val="445705600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493318528"/>
+        <c:axId val="445705600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493117440"/>
+        <c:crossAx val="445704064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2705,7 +2700,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2845,28 +2840,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4817,9 +4812,6 @@
       <c r="M45" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -605,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -614,7 +621,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -743,6 +750,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10359966.705196057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +795,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -914,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +936,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1052,6 +1065,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11680835.07247209</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11572671.024608156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1094,7 +1110,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1223,6 +1239,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1232,7 +1251,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1320868.3672760334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1202432.1483710576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428222336"/>
-        <c:axId val="428232704"/>
+        <c:axId val="514736896"/>
+        <c:axId val="514738432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428222336"/>
+        <c:axId val="514736896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428232704"/>
+        <c:crossAx val="514738432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428232704"/>
+        <c:axId val="514738432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428222336"/>
+        <c:crossAx val="514736896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1700,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1807,6 +1829,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4798.4304394137898</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10272.171041041865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,8 +1846,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="445705600"/>
-        <c:axId val="445704064"/>
+        <c:axId val="517781760"/>
+        <c:axId val="517770624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1847,7 +1872,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1976,6 +2001,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1985,7 +2013,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2114,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,11 +2161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445687680"/>
-        <c:axId val="445702144"/>
+        <c:axId val="517767168"/>
+        <c:axId val="517768704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445687680"/>
+        <c:axId val="517767168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445702144"/>
+        <c:crossAx val="517768704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445702144"/>
+        <c:axId val="517768704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445687680"/>
+        <c:crossAx val="517767168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="445704064"/>
+        <c:axId val="517770624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445705600"/>
+        <c:crossAx val="517781760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="445705600"/>
+        <c:axId val="517781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445704064"/>
+        <c:crossAx val="517770624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2840,28 +2871,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4810,6 +4841,47 @@
         <v>0</v>
       </c>
       <c r="M45" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="12.75">
+      <c r="A46" s="11">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="12">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="13">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="13">
+        <v>10272.171041041865</v>
+      </c>
+      <c r="F46" s="14">
+        <v>13152.58745546665</v>
+      </c>
+      <c r="G46" s="14">
+        <v>14817760.251105154</v>
+      </c>
+      <c r="H46" s="14">
+        <v>11572671.024608156</v>
+      </c>
+      <c r="I46" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J46" s="14">
+        <v>11572671.024608156</v>
+      </c>
+      <c r="K46" s="14">
+        <v>1202432.1483710576</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -612,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +620,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -752,6 +751,9 @@
                   <c:v>10359966.705196057</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
@@ -795,7 +797,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -927,6 +929,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +941,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1068,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11572671.024608156</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12254288.052684262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1118,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1242,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,7 +1262,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1202432.1483710576</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1884049.1764471643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,11 +1418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514736896"/>
-        <c:axId val="514738432"/>
+        <c:axId val="434034560"/>
+        <c:axId val="434036736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="514736896"/>
+        <c:axId val="434034560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,14 +1465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514738432"/>
+        <c:crossAx val="434036736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="514738432"/>
+        <c:axId val="434036736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514736896"/>
+        <c:crossAx val="434034560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1714,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1832,6 +1846,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10272.171041041865</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2109.0834862773509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,8 +1863,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="517781760"/>
-        <c:axId val="517770624"/>
+        <c:axId val="439191808"/>
+        <c:axId val="439175808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1872,7 +1889,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2004,6 +2021,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,7 +2033,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2145,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,11 +2184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517767168"/>
-        <c:axId val="517768704"/>
+        <c:axId val="439162368"/>
+        <c:axId val="439173888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517767168"/>
+        <c:axId val="439162368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517768704"/>
+        <c:crossAx val="439173888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517768704"/>
+        <c:axId val="439173888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517767168"/>
+        <c:crossAx val="439162368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="517770624"/>
+        <c:axId val="439175808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517781760"/>
+        <c:crossAx val="439191808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="517781760"/>
+        <c:axId val="439191808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="517770624"/>
+        <c:crossAx val="439175808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2871,28 +2894,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -4882,6 +4905,47 @@
         <v>0</v>
       </c>
       <c r="M46" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="12.75">
+      <c r="A47" s="11">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="12">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="13">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="13">
+        <v>-2109.0834862773509</v>
+      </c>
+      <c r="F47" s="14">
+        <v>-2550.2822615939067</v>
+      </c>
+      <c r="G47" s="14">
+        <v>14815209.968843561</v>
+      </c>
+      <c r="H47" s="14">
+        <v>12252178.969197985</v>
+      </c>
+      <c r="I47" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J47" s="14">
+        <v>12254288.052684262</v>
+      </c>
+      <c r="K47" s="14">
+        <v>1884049.1764471643</v>
+      </c>
+      <c r="L47" s="13">
+        <v>2109.0834862773509</v>
+      </c>
+      <c r="M47" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -611,6 +611,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +623,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -754,6 +757,9 @@
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>10370238.876237098</c:v>
                 </c:pt>
               </c:numCache>
@@ -797,7 +803,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -932,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,7 +950,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1076,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>12254288.052684262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12061690.153542675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1130,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1253,6 +1265,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +1277,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1397,6 +1412,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1884049.1764471643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1691451.277305577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,11 +1436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="434034560"/>
-        <c:axId val="434036736"/>
+        <c:axId val="459389568"/>
+        <c:axId val="460921856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="434034560"/>
+        <c:axId val="459389568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1465,14 +1483,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434036736"/>
+        <c:crossAx val="460921856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="434036736"/>
+        <c:axId val="460921856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434034560"/>
+        <c:crossAx val="459389568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1714,7 +1732,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1849,6 +1867,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2109.0834862773509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-22.101905759162022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,8 +1884,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="439191808"/>
-        <c:axId val="439175808"/>
+        <c:axId val="468377600"/>
+        <c:axId val="468353792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1889,7 +1910,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2024,6 +2045,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2057,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2168,6 +2192,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,11 +2211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439162368"/>
-        <c:axId val="439173888"/>
+        <c:axId val="468332544"/>
+        <c:axId val="468334080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439162368"/>
+        <c:axId val="468332544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439173888"/>
+        <c:crossAx val="468334080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="439173888"/>
+        <c:axId val="468334080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2316,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439162368"/>
+        <c:crossAx val="468332544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="439175808"/>
+        <c:axId val="468353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2358,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439191808"/>
+        <c:crossAx val="468377600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="439191808"/>
+        <c:axId val="468377600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="439175808"/>
+        <c:crossAx val="468353792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2754,7 +2781,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4949,6 +4976,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="48" spans="1:13" ht="12.75">
+      <c r="A48" s="11">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="12">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="13">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="13">
+        <v>-22.101905759162022</v>
+      </c>
+      <c r="F48" s="14">
+        <v>-27.152218027424961</v>
+      </c>
+      <c r="G48" s="14">
+        <v>14815182.816625534</v>
+      </c>
+      <c r="H48" s="14">
+        <v>12059558.968150638</v>
+      </c>
+      <c r="I48" s="14">
+        <v>10370238.876237098</v>
+      </c>
+      <c r="J48" s="14">
+        <v>12061690.153542675</v>
+      </c>
+      <c r="K48" s="14">
+        <v>1691451.277305577</v>
+      </c>
+      <c r="L48" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M48" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -614,6 +614,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +626,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -761,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>10370238.876237098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10388717.145658603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -803,7 +809,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -941,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +959,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1088,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>12061690.153542675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11413484.948960992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1142,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1268,6 +1280,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1292,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1415,6 +1430,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1691451.277305577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1024767.8033023886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,11 +1454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459389568"/>
-        <c:axId val="460921856"/>
+        <c:axId val="103256448"/>
+        <c:axId val="103257984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459389568"/>
+        <c:axId val="103256448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1483,14 +1501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460921856"/>
+        <c:crossAx val="103257984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460921856"/>
+        <c:axId val="103257984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1559,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459389568"/>
+        <c:crossAx val="103256448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,7 +1750,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1870,6 +1888,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-22.101905759162022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18478.269421505425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1884,8 +1905,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468377600"/>
-        <c:axId val="468353792"/>
+        <c:axId val="105053184"/>
+        <c:axId val="103360000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1910,7 +1931,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2048,6 +2069,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,7 +2081,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2195,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,11 +2238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468332544"/>
-        <c:axId val="468334080"/>
+        <c:axId val="103294464"/>
+        <c:axId val="103313408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468332544"/>
+        <c:axId val="103294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,14 +2285,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468334080"/>
+        <c:crossAx val="103313408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468334080"/>
+        <c:axId val="103313408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,12 +2343,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468332544"/>
+        <c:crossAx val="103294464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468353792"/>
+        <c:axId val="103360000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,12 +2385,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468377600"/>
+        <c:crossAx val="105053184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468377600"/>
+        <c:axId val="105053184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,7 +2399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468353792"/>
+        <c:crossAx val="103360000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2808,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5017,6 +5044,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:13" ht="12.75">
+      <c r="A49" s="11">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="12">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="12">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="13">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="13">
+        <v>18478.269421505425</v>
+      </c>
+      <c r="F49" s="14">
+        <v>24028.959129334373</v>
+      </c>
+      <c r="G49" s="14">
+        <v>14839211.775754867</v>
+      </c>
+      <c r="H49" s="14">
+        <v>11411353.763568955</v>
+      </c>
+      <c r="I49" s="14">
+        <v>10388717.145658603</v>
+      </c>
+      <c r="J49" s="14">
+        <v>11413484.948960992</v>
+      </c>
+      <c r="K49" s="14">
+        <v>1024767.8033023886</v>
+      </c>
+      <c r="L49" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M49" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -617,6 +617,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,7 +629,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -767,6 +770,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10388717.145658603</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10427171.308653828</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +815,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -950,6 +956,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +968,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1100,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>11413484.948960992</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11644849.034862332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1154,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1283,6 +1295,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,7 +1307,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1433,6 +1448,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1024767.8033023886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1217677.7262085043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,11 +1472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103256448"/>
-        <c:axId val="103257984"/>
+        <c:axId val="448568704"/>
+        <c:axId val="541552000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103256448"/>
+        <c:axId val="448568704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,14 +1519,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103257984"/>
+        <c:crossAx val="541552000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103257984"/>
+        <c:axId val="541552000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1577,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103256448"/>
+        <c:crossAx val="448568704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,7 +1768,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1891,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>18478.269421505425</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38454.162995225663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,8 +1926,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="105053184"/>
-        <c:axId val="103360000"/>
+        <c:axId val="642218240"/>
+        <c:axId val="629658752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1931,7 +1952,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2072,6 +2093,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2105,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2222,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2238,11 +2265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103294464"/>
-        <c:axId val="103313408"/>
+        <c:axId val="629650176"/>
+        <c:axId val="629652480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="103294464"/>
+        <c:axId val="629650176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,14 +2312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103313408"/>
+        <c:crossAx val="629652480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="103313408"/>
+        <c:axId val="629652480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,12 +2370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="103294464"/>
+        <c:crossAx val="629650176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103360000"/>
+        <c:axId val="629658752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2385,12 +2412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105053184"/>
+        <c:crossAx val="642218240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="105053184"/>
+        <c:axId val="642218240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103360000"/>
+        <c:crossAx val="629658752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2808,7 +2835,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3265,11 +3292,11 @@
         <v>45657</v>
       </c>
       <c r="AF6" s="10">
-        <v>3101231.3499533474</v>
+        <v>3280002.5483190175</v>
       </c>
       <c r="AG6" s="10">
         <f>-AF6</f>
-        <v>-3101231.3499533474</v>
+        <v>-3280002.5483190175</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -3316,25 +3343,25 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="17">
-        <v>3101231.3499533474</v>
+        <v>3280002.5483190175</v>
       </c>
       <c r="R7" s="7">
-        <v>7079964.156877039</v>
+        <v>10359966.705196057</v>
       </c>
       <c r="S7" s="7">
-        <v>6184927.3644555239</v>
+        <v>11680835.07247209</v>
       </c>
       <c r="T7" s="7">
-        <v>-895036.7924215151</v>
+        <v>1320868.3672760334</v>
       </c>
       <c r="U7" s="7">
         <v>0</v>
       </c>
       <c r="V7" s="18">
-        <v>-0.12641826605183187</v>
+        <v>0.12749735639725077</v>
       </c>
       <c r="W7" s="18">
-        <v>-0.21743933173383112</v>
+        <v>5.7816253801587836E-2</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -3346,7 +3373,7 @@
         <v>45657</v>
       </c>
       <c r="AG7" s="9">
-        <v>6184927.3644555239</v>
+        <v>11680835.07247209</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -3390,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="9">
-        <v>-0.21743933173383112</v>
+        <v>5.7816253801587836E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -5082,6 +5109,47 @@
         <v>2131.1853920365129</v>
       </c>
       <c r="M49" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75">
+      <c r="A50" s="11">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="12">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="12">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="13">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="13">
+        <v>38454.162995225663</v>
+      </c>
+      <c r="F50" s="14">
+        <v>49174.121147438789</v>
+      </c>
+      <c r="G50" s="14">
+        <v>14888385.896902306</v>
+      </c>
+      <c r="H50" s="14">
+        <v>11642717.849470295</v>
+      </c>
+      <c r="I50" s="14">
+        <v>10427171.308653828</v>
+      </c>
+      <c r="J50" s="14">
+        <v>11644849.034862332</v>
+      </c>
+      <c r="K50" s="14">
+        <v>1217677.7262085043</v>
+      </c>
+      <c r="L50" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M50" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -620,6 +620,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -629,7 +632,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10427171.308653828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10437977.42151631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,7 +821,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -959,6 +965,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -968,7 +977,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1121,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11644849.034862332</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12102306.298671745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1154,7 +1166,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1298,6 +1310,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1322,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1451,6 +1466,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1217677.7262085043</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1664328.8771554343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,11 +1490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448568704"/>
-        <c:axId val="541552000"/>
+        <c:axId val="470095360"/>
+        <c:axId val="470097280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448568704"/>
+        <c:axId val="470095360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,14 +1537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541552000"/>
+        <c:crossAx val="470097280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541552000"/>
+        <c:axId val="470097280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1595,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448568704"/>
+        <c:crossAx val="470095360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1768,7 +1786,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1912,6 +1930,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>38454.162995225663</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10806.112862482138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,8 +1947,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="642218240"/>
-        <c:axId val="629658752"/>
+        <c:axId val="474810624"/>
+        <c:axId val="474808704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1952,7 +1973,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2096,6 +2117,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,7 +2129,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2249,6 +2273,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="629650176"/>
-        <c:axId val="629652480"/>
+        <c:axId val="470144512"/>
+        <c:axId val="470146048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="629650176"/>
+        <c:axId val="470144512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,14 +2339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629652480"/>
+        <c:crossAx val="470146048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629652480"/>
+        <c:axId val="470146048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,12 +2397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629650176"/>
+        <c:crossAx val="470144512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="629658752"/>
+        <c:axId val="474808704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,12 +2439,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642218240"/>
+        <c:crossAx val="474810624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="642218240"/>
+        <c:axId val="474810624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629658752"/>
+        <c:crossAx val="474808704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2835,7 +2862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5153,6 +5180,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="51" spans="1:13" ht="12.75">
+      <c r="A51" s="11">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="12">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="12">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="13">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="13">
+        <v>10806.112862482138</v>
+      </c>
+      <c r="F51" s="14">
+        <v>13308.02114953735</v>
+      </c>
+      <c r="G51" s="14">
+        <v>14901693.918051843</v>
+      </c>
+      <c r="H51" s="14">
+        <v>12100175.113279708</v>
+      </c>
+      <c r="I51" s="14">
+        <v>10437977.42151631</v>
+      </c>
+      <c r="J51" s="14">
+        <v>12102306.298671745</v>
+      </c>
+      <c r="K51" s="14">
+        <v>1664328.8771554343</v>
+      </c>
+      <c r="L51" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -623,6 +627,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +639,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +786,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10437977.42151631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -821,7 +831,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -968,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,7 +990,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1137,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>12102306.298671745</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12594409.732861409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1182,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1313,6 +1329,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1341,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1469,6 +1488,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1664328.8771554343</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2156085.5509704165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,11 +1512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470095360"/>
-        <c:axId val="470097280"/>
+        <c:axId val="96282880"/>
+        <c:axId val="96284672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470095360"/>
+        <c:axId val="96282880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,14 +1559,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470097280"/>
+        <c:crossAx val="96284672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470097280"/>
+        <c:axId val="96284672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1617,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470095360"/>
+        <c:crossAx val="96282880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,7 +1808,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1933,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>10806.112862482138</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>346.76037468151208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,8 +1972,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474810624"/>
-        <c:axId val="474808704"/>
+        <c:axId val="96310784"/>
+        <c:axId val="96309248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1973,7 +1998,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2120,6 +2145,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2157,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2276,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470144512"/>
-        <c:axId val="470146048"/>
+        <c:axId val="96301440"/>
+        <c:axId val="96303360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470144512"/>
+        <c:axId val="96301440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470146048"/>
+        <c:crossAx val="96303360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470146048"/>
+        <c:axId val="96303360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470144512"/>
+        <c:crossAx val="96301440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474808704"/>
+        <c:axId val="96309248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474810624"/>
+        <c:crossAx val="96310784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474810624"/>
+        <c:axId val="96310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474808704"/>
+        <c:crossAx val="96309248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3002,28 +3033,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5218,6 +5249,47 @@
         <v>2131.1853920365129</v>
       </c>
       <c r="M51" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75">
+      <c r="A52" s="11">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="12">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="12">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="13">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="13">
+        <v>346.76037468151208</v>
+      </c>
+      <c r="F52" s="14">
+        <v>410.36729342107651</v>
+      </c>
+      <c r="G52" s="14">
+        <v>14902104.285345264</v>
+      </c>
+      <c r="H52" s="14">
+        <v>12592278.547469372</v>
+      </c>
+      <c r="I52" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J52" s="14">
+        <v>12594409.732861409</v>
+      </c>
+      <c r="K52" s="14">
+        <v>2156085.5509704165</v>
+      </c>
+      <c r="L52" s="13">
+        <v>2131.1853920365129</v>
+      </c>
+      <c r="M52" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -630,6 +626,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,7 +638,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -788,6 +787,9 @@
                   <c:v>10437977.42151631</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -831,7 +833,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -981,6 +983,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +995,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1140,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12594409.732861409</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15038353.570811914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,7 +1190,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1332,6 +1340,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1352,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1491,6 +1502,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2156085.5509704165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4600029.3889209218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,11 +1526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96282880"/>
-        <c:axId val="96284672"/>
+        <c:axId val="399386112"/>
+        <c:axId val="399705216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96282880"/>
+        <c:axId val="399386112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96284672"/>
+        <c:crossAx val="399705216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96284672"/>
+        <c:axId val="399705216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96282880"/>
+        <c:crossAx val="399386112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1808,7 +1822,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1958,6 +1972,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>346.76037468151208</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-161942.32858104029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,8 +1989,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96310784"/>
-        <c:axId val="96309248"/>
+        <c:axId val="421612544"/>
+        <c:axId val="421611008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1998,7 +2015,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2148,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,7 +2177,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2307,6 +2327,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2346,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96301440"/>
-        <c:axId val="96303360"/>
+        <c:axId val="421606912"/>
+        <c:axId val="421608448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="96301440"/>
+        <c:axId val="421606912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2393,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96303360"/>
+        <c:crossAx val="421608448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="96303360"/>
+        <c:axId val="421608448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2451,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96301440"/>
+        <c:crossAx val="421606912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96309248"/>
+        <c:axId val="421611008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2493,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96310784"/>
+        <c:crossAx val="421612544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="96310784"/>
+        <c:axId val="421612544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96309248"/>
+        <c:crossAx val="421611008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3033,28 +3056,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5290,6 +5313,47 @@
         <v>2131.1853920365129</v>
       </c>
       <c r="M52" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75">
+      <c r="A53" s="11">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="12">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="12">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="13">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="13">
+        <v>-161942.32858104029</v>
+      </c>
+      <c r="F53" s="14">
+        <v>-160497.85689964186</v>
+      </c>
+      <c r="G53" s="14">
+        <v>14741606.428445622</v>
+      </c>
+      <c r="H53" s="14">
+        <v>14874280.056838838</v>
+      </c>
+      <c r="I53" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J53" s="14">
+        <v>15038353.570811914</v>
+      </c>
+      <c r="K53" s="14">
+        <v>4600029.3889209218</v>
+      </c>
+      <c r="L53" s="13">
+        <v>164073.5139730768</v>
+      </c>
+      <c r="M53" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -476,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -629,6 +629,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +641,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -790,6 +793,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -833,7 +839,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -986,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +1004,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1148,6 +1157,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>15038353.570811914</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16202942.179760782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1202,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1343,6 +1355,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1367,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1505,6 +1520,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4600029.3889209218</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5764617.9978697896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1526,11 +1544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399386112"/>
-        <c:axId val="399705216"/>
+        <c:axId val="71203840"/>
+        <c:axId val="71205632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399386112"/>
+        <c:axId val="71203840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1573,14 +1591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399705216"/>
+        <c:crossAx val="71205632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399705216"/>
+        <c:axId val="71205632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1649,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399386112"/>
+        <c:crossAx val="71203840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,7 +1840,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1975,6 +1993,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-161942.32858104029</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-415753.10211345047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1989,8 +2010,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="421612544"/>
-        <c:axId val="421611008"/>
+        <c:axId val="106644608"/>
+        <c:axId val="106619264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2015,7 +2036,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2168,6 +2189,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,7 +2201,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2330,6 +2354,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,11 +2373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421606912"/>
-        <c:axId val="421608448"/>
+        <c:axId val="71232896"/>
+        <c:axId val="106310272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421606912"/>
+        <c:axId val="71232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2393,14 +2420,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421608448"/>
+        <c:crossAx val="106310272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421608448"/>
+        <c:axId val="106310272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,12 +2478,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421606912"/>
+        <c:crossAx val="71232896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="421611008"/>
+        <c:axId val="106619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,12 +2520,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421612544"/>
+        <c:crossAx val="106644608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="421612544"/>
+        <c:axId val="106644608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421611008"/>
+        <c:crossAx val="106619264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2916,7 +2943,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5357,6 +5384,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:13" ht="12.75">
+      <c r="A54" s="11">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="12">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="12">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="13">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="13">
+        <v>-415753.10211345047</v>
+      </c>
+      <c r="F54" s="14">
+        <v>-382125.99220512714</v>
+      </c>
+      <c r="G54" s="14">
+        <v>14359480.436240494</v>
+      </c>
+      <c r="H54" s="14">
+        <v>15623115.563674254</v>
+      </c>
+      <c r="I54" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J54" s="14">
+        <v>16202942.179760782</v>
+      </c>
+      <c r="K54" s="14">
+        <v>5764617.9978697896</v>
+      </c>
+      <c r="L54" s="13">
+        <v>579826.61608652724</v>
+      </c>
+      <c r="M54" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,6 +75,10 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -476,7 +480,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -632,6 +636,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,7 +648,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -796,6 +803,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -839,7 +849,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -995,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1017,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1160,6 +1173,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>16202942.179760782</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15987548.466847729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,7 +1218,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1358,6 +1374,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,7 +1386,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1523,6 +1542,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5764617.9978697896</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5549224.2849567365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,11 +1566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71203840"/>
-        <c:axId val="71205632"/>
+        <c:axId val="89209472"/>
+        <c:axId val="89215744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71203840"/>
+        <c:axId val="89209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1613,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71205632"/>
+        <c:crossAx val="89215744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="71205632"/>
+        <c:axId val="89215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1671,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71203840"/>
+        <c:crossAx val="89209472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1840,7 +1862,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1996,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-415753.10211345047</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-330664.76027766021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,8 +2035,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="106644608"/>
-        <c:axId val="106619264"/>
+        <c:axId val="429001728"/>
+        <c:axId val="428999424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2036,7 +2061,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2192,6 +2217,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,7 +2229,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2357,6 +2385,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,11 +2404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71232896"/>
-        <c:axId val="106310272"/>
+        <c:axId val="89231360"/>
+        <c:axId val="89232896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="71232896"/>
+        <c:axId val="89231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,14 +2451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106310272"/>
+        <c:crossAx val="89232896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="106310272"/>
+        <c:axId val="89232896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71232896"/>
+        <c:crossAx val="89231360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106619264"/>
+        <c:axId val="428999424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2520,12 +2551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="106644608"/>
+        <c:crossAx val="429001728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="106644608"/>
+        <c:axId val="429001728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2534,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106619264"/>
+        <c:crossAx val="428999424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +2974,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3083,28 +3114,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5422,6 +5453,47 @@
         <v>579826.61608652724</v>
       </c>
       <c r="M54" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75">
+      <c r="A55" s="11">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="12">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="12">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="13">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="13">
+        <v>-330664.76027766021</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-308168.47566122416</v>
+      </c>
+      <c r="G55" s="14">
+        <v>14051311.96057927</v>
+      </c>
+      <c r="H55" s="14">
+        <v>15077057.090483541</v>
+      </c>
+      <c r="I55" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J55" s="14">
+        <v>15987548.466847729</v>
+      </c>
+      <c r="K55" s="14">
+        <v>5549224.2849567365</v>
+      </c>
+      <c r="L55" s="13">
+        <v>910491.37636418745</v>
+      </c>
+      <c r="M55" s="8">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel4(SAR)cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -75,10 +75,6 @@
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每年投入本金</t>
@@ -480,7 +476,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -639,6 +635,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,7 +647,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -806,6 +805,9 @@
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>10438324.181890992</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>10438324.181890992</c:v>
                 </c:pt>
               </c:numCache>
@@ -849,7 +851,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1008,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1022,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1176,6 +1181,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>15987548.466847729</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15523855.279351614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1226,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1377,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,7 +1397,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1545,6 +1556,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5549224.2849567365</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5085531.097460622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1566,11 +1580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89209472"/>
-        <c:axId val="89215744"/>
+        <c:axId val="342668416"/>
+        <c:axId val="342670336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89209472"/>
+        <c:axId val="342668416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,14 +1627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89215744"/>
+        <c:crossAx val="342670336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89215744"/>
+        <c:axId val="342670336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1671,7 +1685,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89209472"/>
+        <c:crossAx val="342668416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1862,7 +1876,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2021,6 +2035,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-330664.76027766021</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-127166.75771952557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2035,8 +2052,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="429001728"/>
-        <c:axId val="428999424"/>
+        <c:axId val="342748544"/>
+        <c:axId val="342747008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2061,7 +2078,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2220,6 +2237,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2249,7 @@
               <c:f>'模型四 (1)PE副本SAR值非智能计算'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2388,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89231360"/>
-        <c:axId val="89232896"/>
+        <c:axId val="342692224"/>
+        <c:axId val="342694144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="89231360"/>
+        <c:axId val="342692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,14 +2474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89232896"/>
+        <c:crossAx val="342694144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="89232896"/>
+        <c:axId val="342694144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89231360"/>
+        <c:crossAx val="342692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428999424"/>
+        <c:axId val="342747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429001728"/>
+        <c:crossAx val="342748544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="429001728"/>
+        <c:axId val="342748544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428999424"/>
+        <c:crossAx val="342747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +2997,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3114,28 +3137,28 @@
       </c>
       <c r="M3" s="8"/>
       <c r="P3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="V3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="Y3" s="21">
         <v>44561</v>
@@ -5494,6 +5517,47 @@
         <v>910491.37636418745</v>
       </c>
       <c r="M55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75">
+      <c r="A56" s="11">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="12">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="12">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="13">
+        <v>-127166.75771952557</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-122275.73306151405</v>
+      </c>
+      <c r="G56" s="14">
+        <v>13929036.227517756</v>
+      </c>
+      <c r="H56" s="14">
+        <v>14486197.145267902</v>
+      </c>
+      <c r="I56" s="14">
+        <v>10438324.181890992</v>
+      </c>
+      <c r="J56" s="14">
+        <v>15523855.279351614</v>
+      </c>
+      <c r="K56" s="14">
+        <v>5085531.097460622</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1037658.1340837131</v>
+      </c>
+      <c r="M56" s="8">
         <v>1</v>
       </c>
     </row>
